--- a/BackTest/2020-01-14 BackTest LINK.xlsx
+++ b/BackTest/2020-01-14 BackTest LINK.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M322"/>
+  <dimension ref="A1:M323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>2526</v>
       </c>
       <c r="F2" t="n">
-        <v>651.9554000000001</v>
+        <v>1667.6269</v>
       </c>
       <c r="G2" t="n">
-        <v>2519.066666666667</v>
+        <v>2518.933333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2526</v>
+        <v>2528</v>
       </c>
       <c r="C3" t="n">
         <v>2526</v>
       </c>
       <c r="D3" t="n">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="E3" t="n">
         <v>2526</v>
       </c>
       <c r="F3" t="n">
-        <v>1993.0405</v>
+        <v>651.9554000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>2519.2</v>
+        <v>2519.066666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -509,16 +509,16 @@
         <v>2526</v>
       </c>
       <c r="D4" t="n">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="E4" t="n">
         <v>2526</v>
       </c>
       <c r="F4" t="n">
-        <v>6605.6427</v>
+        <v>1993.0405</v>
       </c>
       <c r="G4" t="n">
-        <v>2519.216666666667</v>
+        <v>2519.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C5" t="n">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="D5" t="n">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="E5" t="n">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>6605.6427</v>
       </c>
       <c r="G5" t="n">
-        <v>2519.45</v>
+        <v>2519.216666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="C6" t="n">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="D6" t="n">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="E6" t="n">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>2519.466666666667</v>
+        <v>2519.45</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,19 +608,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="C7" t="n">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="D7" t="n">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="E7" t="n">
-        <v>2523</v>
+        <v>2524</v>
       </c>
       <c r="F7" t="n">
-        <v>32.5279</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
         <v>2519.466666666667</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="C8" t="n">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="D8" t="n">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="E8" t="n">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="F8" t="n">
-        <v>520</v>
+        <v>32.5279</v>
       </c>
       <c r="G8" t="n">
-        <v>2519.55</v>
+        <v>2519.466666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="C9" t="n">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="D9" t="n">
-        <v>2528</v>
+        <v>2522</v>
       </c>
       <c r="E9" t="n">
-        <v>2520</v>
+        <v>2522</v>
       </c>
       <c r="F9" t="n">
-        <v>192.5285955696203</v>
+        <v>520</v>
       </c>
       <c r="G9" t="n">
-        <v>2519.733333333333</v>
+        <v>2519.55</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2523</v>
+        <v>2528</v>
       </c>
       <c r="C10" t="n">
-        <v>2515</v>
+        <v>2520</v>
       </c>
       <c r="D10" t="n">
-        <v>2523</v>
+        <v>2528</v>
       </c>
       <c r="E10" t="n">
-        <v>2515</v>
+        <v>2520</v>
       </c>
       <c r="F10" t="n">
-        <v>1641.1845</v>
+        <v>192.5285955696203</v>
       </c>
       <c r="G10" t="n">
-        <v>2519.833333333333</v>
+        <v>2519.733333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="C11" t="n">
         <v>2515</v>
       </c>
       <c r="D11" t="n">
-        <v>2515</v>
+        <v>2523</v>
       </c>
       <c r="E11" t="n">
         <v>2515</v>
       </c>
       <c r="F11" t="n">
-        <v>919.4144</v>
+        <v>1641.1845</v>
       </c>
       <c r="G11" t="n">
-        <v>2519.816666666667</v>
+        <v>2519.833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="C12" t="n">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="D12" t="n">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="E12" t="n">
-        <v>2511</v>
+        <v>2515</v>
       </c>
       <c r="F12" t="n">
-        <v>90.2937</v>
+        <v>919.4144</v>
       </c>
       <c r="G12" t="n">
-        <v>2519.683333333333</v>
+        <v>2519.816666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="C13" t="n">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="D13" t="n">
-        <v>2510</v>
+        <v>2514</v>
       </c>
       <c r="E13" t="n">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>90.2937</v>
       </c>
       <c r="G13" t="n">
-        <v>2519.433333333333</v>
+        <v>2519.683333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>2510</v>
       </c>
       <c r="F14" t="n">
-        <v>65.3083</v>
+        <v>64</v>
       </c>
       <c r="G14" t="n">
-        <v>2519.183333333333</v>
+        <v>2519.433333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>2510</v>
       </c>
       <c r="F15" t="n">
-        <v>370.6917</v>
+        <v>65.3083</v>
       </c>
       <c r="G15" t="n">
-        <v>2519.016666666667</v>
+        <v>2519.183333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>2510</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3998</v>
+        <v>370.6917</v>
       </c>
       <c r="G16" t="n">
-        <v>2518.7</v>
+        <v>2519.016666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>2510</v>
       </c>
       <c r="F17" t="n">
-        <v>28.1972</v>
+        <v>0.3998</v>
       </c>
       <c r="G17" t="n">
-        <v>2518.483333333333</v>
+        <v>2518.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="C18" t="n">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="D18" t="n">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="E18" t="n">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="F18" t="n">
-        <v>128</v>
+        <v>28.1972</v>
       </c>
       <c r="G18" t="n">
-        <v>2518.116666666667</v>
+        <v>2518.483333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>2509</v>
       </c>
       <c r="C19" t="n">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="D19" t="n">
         <v>2509</v>
       </c>
       <c r="E19" t="n">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="F19" t="n">
-        <v>256.4662</v>
+        <v>128</v>
       </c>
       <c r="G19" t="n">
-        <v>2517.833333333333</v>
+        <v>2518.116666666667</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>2509</v>
+      </c>
+      <c r="C20" t="n">
         <v>2508</v>
       </c>
-      <c r="C20" t="n">
-        <v>2503</v>
-      </c>
       <c r="D20" t="n">
+        <v>2509</v>
+      </c>
+      <c r="E20" t="n">
         <v>2508</v>
       </c>
-      <c r="E20" t="n">
-        <v>2503</v>
-      </c>
       <c r="F20" t="n">
-        <v>221.9469</v>
+        <v>256.4662</v>
       </c>
       <c r="G20" t="n">
-        <v>2517.483333333333</v>
+        <v>2517.833333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>2508</v>
+      </c>
+      <c r="C21" t="n">
         <v>2503</v>
       </c>
-      <c r="C21" t="n">
-        <v>2500</v>
-      </c>
       <c r="D21" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E21" t="n">
         <v>2503</v>
       </c>
-      <c r="E21" t="n">
-        <v>2500</v>
-      </c>
       <c r="F21" t="n">
-        <v>723.7728</v>
+        <v>221.9469</v>
       </c>
       <c r="G21" t="n">
-        <v>2517.1</v>
+        <v>2517.483333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C22" t="n">
         <v>2500</v>
       </c>
-      <c r="C22" t="n">
-        <v>2508</v>
-      </c>
       <c r="D22" t="n">
-        <v>2508</v>
+        <v>2503</v>
       </c>
       <c r="E22" t="n">
         <v>2500</v>
       </c>
       <c r="F22" t="n">
-        <v>1244.9152</v>
+        <v>723.7728</v>
       </c>
       <c r="G22" t="n">
-        <v>2516.866666666667</v>
+        <v>2517.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="C23" t="n">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="D23" t="n">
-        <v>2506</v>
+        <v>2508</v>
       </c>
       <c r="E23" t="n">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="F23" t="n">
-        <v>353.7061</v>
+        <v>1244.9152</v>
       </c>
       <c r="G23" t="n">
-        <v>2516.616666666667</v>
+        <v>2516.866666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="C24" t="n">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="D24" t="n">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="E24" t="n">
-        <v>2499</v>
+        <v>2506</v>
       </c>
       <c r="F24" t="n">
-        <v>213.0298</v>
+        <v>353.7061</v>
       </c>
       <c r="G24" t="n">
-        <v>2516.3</v>
+        <v>2516.616666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="C25" t="n">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D25" t="n">
         <v>2500</v>
       </c>
       <c r="E25" t="n">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="F25" t="n">
-        <v>13.7912</v>
+        <v>213.0298</v>
       </c>
       <c r="G25" t="n">
-        <v>2515.983333333333</v>
+        <v>2516.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>2496</v>
       </c>
       <c r="C26" t="n">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="D26" t="n">
-        <v>2496</v>
+        <v>2500</v>
       </c>
       <c r="E26" t="n">
         <v>2496</v>
       </c>
       <c r="F26" t="n">
-        <v>484.8745</v>
+        <v>13.7912</v>
       </c>
       <c r="G26" t="n">
-        <v>2515.616666666667</v>
+        <v>2515.983333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="C27" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="D27" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="E27" t="n">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="F27" t="n">
-        <v>240.3243</v>
+        <v>484.8745</v>
       </c>
       <c r="G27" t="n">
-        <v>2515.233333333333</v>
+        <v>2515.616666666667</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="C28" t="n">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="D28" t="n">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="E28" t="n">
-        <v>2488</v>
+        <v>2495</v>
       </c>
       <c r="F28" t="n">
-        <v>3019.8408</v>
+        <v>240.3243</v>
       </c>
       <c r="G28" t="n">
-        <v>2514.75</v>
+        <v>2515.233333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C29" t="n">
         <v>2488</v>
       </c>
-      <c r="C29" t="n">
-        <v>2480</v>
-      </c>
       <c r="D29" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E29" t="n">
         <v>2488</v>
       </c>
-      <c r="E29" t="n">
-        <v>2480</v>
-      </c>
       <c r="F29" t="n">
-        <v>187.71</v>
+        <v>3019.8408</v>
       </c>
       <c r="G29" t="n">
-        <v>2514.133333333333</v>
+        <v>2514.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="C30" t="n">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="D30" t="n">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="E30" t="n">
-        <v>2484</v>
+        <v>2480</v>
       </c>
       <c r="F30" t="n">
-        <v>1588.3772</v>
+        <v>187.71</v>
       </c>
       <c r="G30" t="n">
-        <v>2513.583333333333</v>
+        <v>2514.133333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2481</v>
+        <v>2489</v>
       </c>
       <c r="C31" t="n">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="D31" t="n">
-        <v>2481</v>
+        <v>2489</v>
       </c>
       <c r="E31" t="n">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="F31" t="n">
-        <v>468.7859</v>
+        <v>1588.3772</v>
       </c>
       <c r="G31" t="n">
-        <v>2512.983333333333</v>
+        <v>2513.583333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C32" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D32" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E32" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="F32" t="n">
-        <v>236.7815</v>
+        <v>468.7859</v>
       </c>
       <c r="G32" t="n">
-        <v>2512.366666666667</v>
+        <v>2512.983333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="C33" t="n">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="D33" t="n">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="E33" t="n">
-        <v>2487</v>
+        <v>2480</v>
       </c>
       <c r="F33" t="n">
-        <v>288.8692</v>
+        <v>236.7815</v>
       </c>
       <c r="G33" t="n">
-        <v>2511.916666666667</v>
+        <v>2512.366666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C34" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D34" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E34" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6016</v>
+        <v>288.8692</v>
       </c>
       <c r="G34" t="n">
-        <v>2511.566666666667</v>
+        <v>2511.916666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="C35" t="n">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="D35" t="n">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="E35" t="n">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="F35" t="n">
-        <v>1285.8186</v>
+        <v>0.6016</v>
       </c>
       <c r="G35" t="n">
-        <v>2511.166666666667</v>
+        <v>2511.566666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="C36" t="n">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D36" t="n">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="E36" t="n">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F36" t="n">
-        <v>111.2803</v>
+        <v>1285.8186</v>
       </c>
       <c r="G36" t="n">
-        <v>2510.783333333333</v>
+        <v>2511.166666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C37" t="n">
         <v>2486</v>
       </c>
-      <c r="C37" t="n">
-        <v>2485</v>
-      </c>
       <c r="D37" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E37" t="n">
         <v>2486</v>
       </c>
-      <c r="E37" t="n">
-        <v>2485</v>
-      </c>
       <c r="F37" t="n">
-        <v>443.2643</v>
+        <v>111.2803</v>
       </c>
       <c r="G37" t="n">
-        <v>2510.383333333333</v>
+        <v>2510.783333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>2486</v>
       </c>
       <c r="C38" t="n">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D38" t="n">
         <v>2486</v>
       </c>
       <c r="E38" t="n">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="F38" t="n">
-        <v>55.5863</v>
+        <v>443.2643</v>
       </c>
       <c r="G38" t="n">
-        <v>2510</v>
+        <v>2510.383333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>2486</v>
       </c>
       <c r="C39" t="n">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="D39" t="n">
-        <v>2490</v>
+        <v>2486</v>
       </c>
       <c r="E39" t="n">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="F39" t="n">
-        <v>3194.2354</v>
+        <v>55.5863</v>
       </c>
       <c r="G39" t="n">
-        <v>2509.6</v>
+        <v>2510</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C40" t="n">
         <v>2485</v>
       </c>
       <c r="D40" t="n">
-        <v>2485</v>
+        <v>2490</v>
       </c>
       <c r="E40" t="n">
         <v>2485</v>
       </c>
       <c r="F40" t="n">
-        <v>91.173</v>
+        <v>3194.2354</v>
       </c>
       <c r="G40" t="n">
-        <v>2509.116666666667</v>
+        <v>2509.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="C41" t="n">
         <v>2485</v>
       </c>
       <c r="D41" t="n">
-        <v>2490</v>
+        <v>2485</v>
       </c>
       <c r="E41" t="n">
         <v>2485</v>
       </c>
       <c r="F41" t="n">
-        <v>127.0354</v>
+        <v>91.173</v>
       </c>
       <c r="G41" t="n">
-        <v>2508.633333333333</v>
+        <v>2509.116666666667</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C42" t="n">
         <v>2485</v>
       </c>
-      <c r="C42" t="n">
-        <v>2465</v>
-      </c>
       <c r="D42" t="n">
+        <v>2490</v>
+      </c>
+      <c r="E42" t="n">
         <v>2485</v>
       </c>
-      <c r="E42" t="n">
-        <v>2465</v>
-      </c>
       <c r="F42" t="n">
-        <v>4876.1471</v>
+        <v>127.0354</v>
       </c>
       <c r="G42" t="n">
-        <v>2507.816666666667</v>
+        <v>2508.633333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2464</v>
+        <v>2485</v>
       </c>
       <c r="C43" t="n">
-        <v>2476</v>
+        <v>2465</v>
       </c>
       <c r="D43" t="n">
-        <v>2477</v>
+        <v>2485</v>
       </c>
       <c r="E43" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F43" t="n">
-        <v>453.0579</v>
+        <v>4876.1471</v>
       </c>
       <c r="G43" t="n">
-        <v>2507.166666666667</v>
+        <v>2507.816666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2475</v>
+        <v>2464</v>
       </c>
       <c r="C44" t="n">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="D44" t="n">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="E44" t="n">
-        <v>2475</v>
+        <v>2464</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>453.0579</v>
       </c>
       <c r="G44" t="n">
-        <v>2506.5</v>
+        <v>2507.166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="C45" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="D45" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="E45" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="F45" t="n">
-        <v>104.9524</v>
+        <v>10</v>
       </c>
       <c r="G45" t="n">
-        <v>2505.75</v>
+        <v>2506.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="C46" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="D46" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="E46" t="n">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F46" t="n">
-        <v>318.007</v>
+        <v>104.9524</v>
       </c>
       <c r="G46" t="n">
-        <v>2505.016666666667</v>
+        <v>2505.75</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C47" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D47" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="E47" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="F47" t="n">
-        <v>106.4767</v>
+        <v>318.007</v>
       </c>
       <c r="G47" t="n">
-        <v>2504.25</v>
+        <v>2505.016666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="C48" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D48" t="n">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="E48" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F48" t="n">
-        <v>26.7421</v>
+        <v>106.4767</v>
       </c>
       <c r="G48" t="n">
-        <v>2503.516666666667</v>
+        <v>2504.25</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="C49" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="D49" t="n">
-        <v>2470</v>
+        <v>2475</v>
       </c>
       <c r="E49" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0001</v>
+        <v>26.7421</v>
       </c>
       <c r="G49" t="n">
-        <v>2502.766666666667</v>
+        <v>2503.516666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C50" t="n">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="D50" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E50" t="n">
-        <v>2468</v>
+        <v>2470</v>
       </c>
       <c r="F50" t="n">
-        <v>104.013</v>
+        <v>0.0001</v>
       </c>
       <c r="G50" t="n">
-        <v>2502</v>
+        <v>2502.766666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C51" t="n">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="D51" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="E51" t="n">
-        <v>2466</v>
+        <v>2468</v>
       </c>
       <c r="F51" t="n">
-        <v>1020.4979</v>
+        <v>104.013</v>
       </c>
       <c r="G51" t="n">
-        <v>2501.2</v>
+        <v>2502</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>2467</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2467</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2467</v>
+      </c>
+      <c r="E52" t="n">
         <v>2466</v>
       </c>
-      <c r="C52" t="n">
-        <v>2464</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2466</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2464</v>
-      </c>
       <c r="F52" t="n">
-        <v>11325.6115</v>
+        <v>1020.4979</v>
       </c>
       <c r="G52" t="n">
-        <v>2500.3</v>
+        <v>2501.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="C53" t="n">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D53" t="n">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="E53" t="n">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="F53" t="n">
-        <v>1778.2111</v>
+        <v>11325.6115</v>
       </c>
       <c r="G53" t="n">
-        <v>2499.366666666667</v>
+        <v>2500.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="C54" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="D54" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="E54" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="F54" t="n">
-        <v>18.9546</v>
+        <v>1778.2111</v>
       </c>
       <c r="G54" t="n">
-        <v>2498.416666666667</v>
+        <v>2499.366666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="C55" t="n">
-        <v>2488</v>
+        <v>2470</v>
       </c>
       <c r="D55" t="n">
-        <v>2488</v>
+        <v>2470</v>
       </c>
       <c r="E55" t="n">
-        <v>2475</v>
+        <v>2470</v>
       </c>
       <c r="F55" t="n">
-        <v>436.405</v>
+        <v>18.9546</v>
       </c>
       <c r="G55" t="n">
-        <v>2497.716666666667</v>
+        <v>2498.416666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="C56" t="n">
-        <v>2481</v>
+        <v>2488</v>
       </c>
       <c r="D56" t="n">
-        <v>2481</v>
+        <v>2488</v>
       </c>
       <c r="E56" t="n">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="F56" t="n">
-        <v>256.7375</v>
+        <v>436.405</v>
       </c>
       <c r="G56" t="n">
-        <v>2496.9</v>
+        <v>2497.716666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>2479</v>
+      </c>
+      <c r="C57" t="n">
         <v>2481</v>
-      </c>
-      <c r="C57" t="n">
-        <v>2472</v>
       </c>
       <c r="D57" t="n">
         <v>2481</v>
       </c>
       <c r="E57" t="n">
-        <v>2472</v>
+        <v>2479</v>
       </c>
       <c r="F57" t="n">
-        <v>1178.5536</v>
+        <v>256.7375</v>
       </c>
       <c r="G57" t="n">
-        <v>2495.866666666667</v>
+        <v>2496.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2473</v>
+        <v>2481</v>
       </c>
       <c r="C58" t="n">
         <v>2472</v>
       </c>
       <c r="D58" t="n">
-        <v>2473</v>
+        <v>2481</v>
       </c>
       <c r="E58" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="F58" t="n">
-        <v>868.6719000000001</v>
+        <v>1178.5536</v>
       </c>
       <c r="G58" t="n">
-        <v>2494.85</v>
+        <v>2495.866666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2431,19 +2431,19 @@
         <v>2473</v>
       </c>
       <c r="C59" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D59" t="n">
         <v>2473</v>
       </c>
       <c r="E59" t="n">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="F59" t="n">
-        <v>66.50579999999999</v>
+        <v>868.6719000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>2494</v>
+        <v>2494.85</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         <v>2473</v>
       </c>
       <c r="F60" t="n">
-        <v>183.9672</v>
+        <v>66.50579999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>2473</v>
       </c>
       <c r="F61" t="n">
-        <v>143.9523</v>
+        <v>183.9672</v>
       </c>
       <c r="G61" t="n">
-        <v>2492.116666666667</v>
+        <v>2493</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2542,13 +2542,13 @@
         <v>2473</v>
       </c>
       <c r="E62" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F62" t="n">
-        <v>1306.4394</v>
+        <v>143.9523</v>
       </c>
       <c r="G62" t="n">
-        <v>2491.233333333333</v>
+        <v>2492.116666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>2473</v>
       </c>
       <c r="D63" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E63" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F63" t="n">
-        <v>532.0333000000001</v>
+        <v>1306.4394</v>
       </c>
       <c r="G63" t="n">
-        <v>2490.35</v>
+        <v>2491.233333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>2473</v>
       </c>
       <c r="D64" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="E64" t="n">
         <v>2473</v>
       </c>
       <c r="F64" t="n">
-        <v>421.3861</v>
+        <v>532.0333000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>2489.466666666667</v>
+        <v>2490.35</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="C65" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="D65" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="E65" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F65" t="n">
-        <v>407.3015</v>
+        <v>421.3861</v>
       </c>
       <c r="G65" t="n">
-        <v>2488.583333333333</v>
+        <v>2489.466666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>2472</v>
       </c>
       <c r="F66" t="n">
-        <v>62.7578</v>
+        <v>407.3015</v>
       </c>
       <c r="G66" t="n">
-        <v>2487.716666666667</v>
+        <v>2488.583333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="C67" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="D67" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="E67" t="n">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="F67" t="n">
-        <v>88.3018</v>
+        <v>62.7578</v>
       </c>
       <c r="G67" t="n">
-        <v>2486.833333333333</v>
+        <v>2487.716666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>2470</v>
       </c>
       <c r="F68" t="n">
-        <v>207.7204</v>
+        <v>88.3018</v>
       </c>
       <c r="G68" t="n">
-        <v>2485.966666666667</v>
+        <v>2486.833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>2470</v>
       </c>
       <c r="F69" t="n">
-        <v>230.5574</v>
+        <v>207.7204</v>
       </c>
       <c r="G69" t="n">
-        <v>2485.133333333333</v>
+        <v>2485.966666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>2470</v>
       </c>
       <c r="F70" t="n">
-        <v>0.21</v>
+        <v>230.5574</v>
       </c>
       <c r="G70" t="n">
-        <v>2484.383333333333</v>
+        <v>2485.133333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="C71" t="n">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="D71" t="n">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="E71" t="n">
-        <v>2476</v>
+        <v>2470</v>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>0.21</v>
       </c>
       <c r="G71" t="n">
-        <v>2483.733333333333</v>
+        <v>2484.383333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C72" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D72" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="E72" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F72" t="n">
-        <v>120.1796</v>
+        <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>2483.166666666667</v>
+        <v>2483.733333333333</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="C73" t="n">
         <v>2477</v>
       </c>
       <c r="D73" t="n">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="E73" t="n">
         <v>2477</v>
       </c>
       <c r="F73" t="n">
-        <v>2209.503</v>
+        <v>120.1796</v>
       </c>
       <c r="G73" t="n">
-        <v>2482.616666666667</v>
+        <v>2483.166666666667</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="C74" t="n">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="D74" t="n">
-        <v>2475</v>
+        <v>2479</v>
       </c>
       <c r="E74" t="n">
-        <v>2474</v>
+        <v>2477</v>
       </c>
       <c r="F74" t="n">
-        <v>176.6935</v>
+        <v>2209.503</v>
       </c>
       <c r="G74" t="n">
-        <v>2482.016666666667</v>
+        <v>2482.616666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2988,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C75" t="n">
         <v>2474</v>
       </c>
       <c r="D75" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="E75" t="n">
         <v>2474</v>
       </c>
       <c r="F75" t="n">
-        <v>246.9133</v>
+        <v>176.6935</v>
       </c>
       <c r="G75" t="n">
-        <v>2481.416666666667</v>
+        <v>2482.016666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="C76" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="D76" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="E76" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>246.9133</v>
       </c>
       <c r="G76" t="n">
-        <v>2480.916666666667</v>
+        <v>2481.416666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C77" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D77" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E77" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F77" t="n">
-        <v>6.1182</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="n">
-        <v>2480.433333333333</v>
+        <v>2480.916666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="C78" t="n">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="D78" t="n">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="E78" t="n">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2062</v>
+        <v>6.1182</v>
       </c>
       <c r="G78" t="n">
-        <v>2479.933333333333</v>
+        <v>2480.433333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="C79" t="n">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="D79" t="n">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="E79" t="n">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F79" t="n">
-        <v>855.3536</v>
+        <v>0.2062</v>
       </c>
       <c r="G79" t="n">
-        <v>2479.483333333333</v>
+        <v>2479.933333333333</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C80" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D80" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E80" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="F80" t="n">
-        <v>714.0188000000001</v>
+        <v>855.3536</v>
       </c>
       <c r="G80" t="n">
-        <v>2479.1</v>
+        <v>2479.483333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C81" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D81" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E81" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F81" t="n">
-        <v>1128.955</v>
+        <v>714.0188000000001</v>
       </c>
       <c r="G81" t="n">
-        <v>2478.783333333333</v>
+        <v>2479.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3236,19 +3236,19 @@
         <v>2481</v>
       </c>
       <c r="C82" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D82" t="n">
         <v>2481</v>
       </c>
       <c r="E82" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="F82" t="n">
-        <v>948.5606</v>
+        <v>1128.955</v>
       </c>
       <c r="G82" t="n">
-        <v>2478.316666666667</v>
+        <v>2478.783333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>2480</v>
       </c>
       <c r="F83" t="n">
-        <v>380.7282</v>
+        <v>948.5606</v>
       </c>
       <c r="G83" t="n">
-        <v>2477.883333333333</v>
+        <v>2478.316666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C84" t="n">
         <v>2480</v>
       </c>
       <c r="D84" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E84" t="n">
         <v>2480</v>
       </c>
       <c r="F84" t="n">
-        <v>496.5736</v>
+        <v>380.7282</v>
       </c>
       <c r="G84" t="n">
-        <v>2477.566666666667</v>
+        <v>2477.883333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>2480</v>
       </c>
       <c r="F85" t="n">
-        <v>249.5426</v>
+        <v>496.5736</v>
       </c>
       <c r="G85" t="n">
-        <v>2477.233333333333</v>
+        <v>2477.566666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="C86" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D86" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="E86" t="n">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="F86" t="n">
-        <v>730.7505</v>
+        <v>249.5426</v>
       </c>
       <c r="G86" t="n">
-        <v>2476.983333333333</v>
+        <v>2477.233333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>2481</v>
       </c>
       <c r="F87" t="n">
-        <v>573.0728</v>
+        <v>730.7505</v>
       </c>
       <c r="G87" t="n">
-        <v>2476.75</v>
+        <v>2476.983333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C88" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D88" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E88" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="F88" t="n">
-        <v>159.7112</v>
+        <v>573.0728</v>
       </c>
       <c r="G88" t="n">
-        <v>2476.616666666667</v>
+        <v>2476.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>2480</v>
       </c>
       <c r="F89" t="n">
-        <v>123.2432</v>
+        <v>159.7112</v>
       </c>
       <c r="G89" t="n">
         <v>2476.616666666667</v>
@@ -3525,10 +3525,10 @@
         <v>2480</v>
       </c>
       <c r="F90" t="n">
-        <v>11.826</v>
+        <v>123.2432</v>
       </c>
       <c r="G90" t="n">
-        <v>2476.55</v>
+        <v>2476.616666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="C91" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="D91" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="E91" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="F91" t="n">
-        <v>300</v>
+        <v>11.826</v>
       </c>
       <c r="G91" t="n">
-        <v>2476.466666666667</v>
+        <v>2476.55</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3595,10 +3595,10 @@
         <v>2476</v>
       </c>
       <c r="F92" t="n">
-        <v>59.401</v>
+        <v>300</v>
       </c>
       <c r="G92" t="n">
-        <v>2476.4</v>
+        <v>2476.466666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="C93" t="n">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="D93" t="n">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="E93" t="n">
-        <v>2481</v>
+        <v>2476</v>
       </c>
       <c r="F93" t="n">
-        <v>1.5</v>
+        <v>59.401</v>
       </c>
       <c r="G93" t="n">
-        <v>2476.3</v>
+        <v>2476.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C94" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="D94" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="E94" t="n">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="G94" t="n">
-        <v>2476.166666666667</v>
+        <v>2476.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C95" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="D95" t="n">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="E95" t="n">
-        <v>2476</v>
+        <v>2480</v>
       </c>
       <c r="F95" t="n">
-        <v>49.7671</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>2476.016666666667</v>
+        <v>2476.166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3726,19 +3726,19 @@
         <v>2478</v>
       </c>
       <c r="C96" t="n">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="D96" t="n">
         <v>2478</v>
       </c>
       <c r="E96" t="n">
-        <v>2471</v>
+        <v>2476</v>
       </c>
       <c r="F96" t="n">
-        <v>2465.2874</v>
+        <v>49.7671</v>
       </c>
       <c r="G96" t="n">
-        <v>2475.766666666667</v>
+        <v>2476.016666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3758,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="C97" t="n">
         <v>2471</v>
       </c>
       <c r="D97" t="n">
-        <v>2471</v>
+        <v>2478</v>
       </c>
       <c r="E97" t="n">
         <v>2471</v>
       </c>
       <c r="F97" t="n">
-        <v>4841.663</v>
+        <v>2465.2874</v>
       </c>
       <c r="G97" t="n">
-        <v>2475.533333333333</v>
+        <v>2475.766666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>2471</v>
       </c>
       <c r="C98" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="D98" t="n">
         <v>2471</v>
       </c>
       <c r="E98" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="F98" t="n">
-        <v>805.5655</v>
+        <v>4841.663</v>
       </c>
       <c r="G98" t="n">
-        <v>2475.266666666667</v>
+        <v>2475.533333333333</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C99" t="n">
         <v>2470</v>
       </c>
       <c r="D99" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="E99" t="n">
         <v>2470</v>
       </c>
       <c r="F99" t="n">
-        <v>158</v>
+        <v>805.5655</v>
       </c>
       <c r="G99" t="n">
-        <v>2475.016666666667</v>
+        <v>2475.266666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="C100" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D100" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E100" t="n">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="F100" t="n">
-        <v>762.0702</v>
+        <v>158</v>
       </c>
       <c r="G100" t="n">
-        <v>2474.783333333333</v>
+        <v>2475.016666666667</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C101" t="n">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="D101" t="n">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="E101" t="n">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="F101" t="n">
-        <v>4194.1881</v>
+        <v>762.0702</v>
       </c>
       <c r="G101" t="n">
-        <v>2474.416666666667</v>
+        <v>2474.783333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="C102" t="n">
         <v>2463</v>
       </c>
       <c r="D102" t="n">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="E102" t="n">
         <v>2463</v>
       </c>
       <c r="F102" t="n">
-        <v>8.0997</v>
+        <v>4194.1881</v>
       </c>
       <c r="G102" t="n">
-        <v>2474.383333333333</v>
+        <v>2474.416666666667</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="C103" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="D103" t="n">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="E103" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="F103" t="n">
-        <v>104</v>
+        <v>8.0997</v>
       </c>
       <c r="G103" t="n">
-        <v>2474.116666666667</v>
+        <v>2474.383333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="C104" t="n">
         <v>2460</v>
       </c>
       <c r="D104" t="n">
-        <v>2460</v>
+        <v>2462</v>
       </c>
       <c r="E104" t="n">
         <v>2460</v>
       </c>
       <c r="F104" t="n">
-        <v>41.7</v>
+        <v>104</v>
       </c>
       <c r="G104" t="n">
-        <v>2473.866666666667</v>
+        <v>2474.116666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4041,19 @@
         <v>2460</v>
       </c>
       <c r="C105" t="n">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="D105" t="n">
         <v>2460</v>
       </c>
       <c r="E105" t="n">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="F105" t="n">
-        <v>1.7858</v>
+        <v>41.7</v>
       </c>
       <c r="G105" t="n">
-        <v>2473.683333333333</v>
+        <v>2473.866666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C106" t="n">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="D106" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="E106" t="n">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="F106" t="n">
-        <v>2.8137</v>
+        <v>1.7858</v>
       </c>
       <c r="G106" t="n">
-        <v>2473.433333333333</v>
+        <v>2473.683333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C107" t="n">
         <v>2457</v>
       </c>
-      <c r="C107" t="n">
-        <v>2455</v>
-      </c>
       <c r="D107" t="n">
+        <v>2458</v>
+      </c>
+      <c r="E107" t="n">
         <v>2457</v>
       </c>
-      <c r="E107" t="n">
-        <v>2450</v>
-      </c>
       <c r="F107" t="n">
-        <v>1929.9316</v>
+        <v>2.8137</v>
       </c>
       <c r="G107" t="n">
-        <v>2473.183333333333</v>
+        <v>2473.433333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="C108" t="n">
         <v>2455</v>
       </c>
       <c r="D108" t="n">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="E108" t="n">
-        <v>2455</v>
+        <v>2450</v>
       </c>
       <c r="F108" t="n">
-        <v>500</v>
+        <v>1929.9316</v>
       </c>
       <c r="G108" t="n">
-        <v>2472.916666666667</v>
+        <v>2473.183333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>2455</v>
       </c>
       <c r="F109" t="n">
-        <v>80.89721975560082</v>
+        <v>500</v>
       </c>
       <c r="G109" t="n">
-        <v>2472.666666666667</v>
+        <v>2472.916666666667</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4216,19 @@
         <v>2455</v>
       </c>
       <c r="C110" t="n">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="D110" t="n">
         <v>2455</v>
       </c>
       <c r="E110" t="n">
-        <v>2451</v>
+        <v>2455</v>
       </c>
       <c r="F110" t="n">
-        <v>495.6189</v>
+        <v>80.89721975560082</v>
       </c>
       <c r="G110" t="n">
-        <v>2472.383333333333</v>
+        <v>2472.666666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C111" t="n">
         <v>2451</v>
       </c>
-      <c r="C111" t="n">
-        <v>2452</v>
-      </c>
       <c r="D111" t="n">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="E111" t="n">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="F111" t="n">
-        <v>573.66</v>
+        <v>495.6189</v>
       </c>
       <c r="G111" t="n">
-        <v>2472.133333333333</v>
+        <v>2472.383333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4286,19 +4286,19 @@
         <v>2451</v>
       </c>
       <c r="C112" t="n">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="D112" t="n">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E112" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F112" t="n">
-        <v>442.8</v>
+        <v>573.66</v>
       </c>
       <c r="G112" t="n">
-        <v>2471.916666666667</v>
+        <v>2472.133333333333</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>2451</v>
       </c>
       <c r="C113" t="n">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="D113" t="n">
         <v>2451</v>
       </c>
       <c r="E113" t="n">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="F113" t="n">
-        <v>142.3122</v>
+        <v>442.8</v>
       </c>
       <c r="G113" t="n">
-        <v>2471.633333333333</v>
+        <v>2471.916666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>2451</v>
+      </c>
+      <c r="C114" t="n">
         <v>2448</v>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>2451</v>
-      </c>
-      <c r="D114" t="n">
-        <v>2452</v>
       </c>
       <c r="E114" t="n">
         <v>2448</v>
       </c>
       <c r="F114" t="n">
-        <v>1648.8178</v>
+        <v>142.3122</v>
       </c>
       <c r="G114" t="n">
-        <v>2471.316666666667</v>
+        <v>2471.633333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4391,29 +4391,35 @@
         <v>2448</v>
       </c>
       <c r="C115" t="n">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="D115" t="n">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="E115" t="n">
         <v>2448</v>
       </c>
       <c r="F115" t="n">
-        <v>81.5</v>
+        <v>1648.8178</v>
       </c>
       <c r="G115" t="n">
-        <v>2470.65</v>
+        <v>2471.316666666667</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2448</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4423,32 +4429,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2452</v>
+        <v>2448</v>
       </c>
       <c r="C116" t="n">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="D116" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="E116" t="n">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="F116" t="n">
-        <v>547.6052</v>
+        <v>81.5</v>
       </c>
       <c r="G116" t="n">
-        <v>2470.133333333333</v>
+        <v>2470.65</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2451</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4458,36 +4470,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="C117" t="n">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="D117" t="n">
         <v>2454</v>
       </c>
       <c r="E117" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F117" t="n">
+        <v>547.6052</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2470.133333333333</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
         <v>2448</v>
-      </c>
-      <c r="F117" t="n">
-        <v>858.1141</v>
-      </c>
-      <c r="G117" t="n">
-        <v>2469.8</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2450</v>
       </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M117" t="n">
@@ -4502,7 +4514,7 @@
         <v>2454</v>
       </c>
       <c r="C118" t="n">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="D118" t="n">
         <v>2454</v>
@@ -4511,10 +4523,10 @@
         <v>2448</v>
       </c>
       <c r="F118" t="n">
-        <v>1241.9521</v>
+        <v>858.1141</v>
       </c>
       <c r="G118" t="n">
-        <v>2469.4</v>
+        <v>2469.8</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4523,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
@@ -4540,22 +4552,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2447</v>
+        <v>2454</v>
       </c>
       <c r="C119" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="D119" t="n">
-        <v>2447</v>
+        <v>2454</v>
       </c>
       <c r="E119" t="n">
-        <v>2446</v>
+        <v>2448</v>
       </c>
       <c r="F119" t="n">
-        <v>1504.4618</v>
+        <v>1241.9521</v>
       </c>
       <c r="G119" t="n">
-        <v>2468.966666666667</v>
+        <v>2469.4</v>
       </c>
       <c r="H119" t="n">
         <v>1</v>
@@ -4564,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2448</v>
+        <v>2452</v>
       </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
@@ -4581,22 +4593,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2454</v>
+        <v>2447</v>
       </c>
       <c r="C120" t="n">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="D120" t="n">
-        <v>2455</v>
+        <v>2447</v>
       </c>
       <c r="E120" t="n">
-        <v>2452</v>
+        <v>2446</v>
       </c>
       <c r="F120" t="n">
-        <v>4375353.2307</v>
+        <v>1504.4618</v>
       </c>
       <c r="G120" t="n">
-        <v>2468.616666666667</v>
+        <v>2468.966666666667</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4605,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
@@ -4622,22 +4634,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2445</v>
+        <v>2454</v>
       </c>
       <c r="C121" t="n">
-        <v>2445</v>
+        <v>2452</v>
       </c>
       <c r="D121" t="n">
-        <v>2445</v>
+        <v>2455</v>
       </c>
       <c r="E121" t="n">
-        <v>2445</v>
+        <v>2452</v>
       </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>4375353.2307</v>
       </c>
       <c r="G121" t="n">
-        <v>2468.15</v>
+        <v>2468.616666666667</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4646,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>2452</v>
+        <v>2447</v>
       </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
@@ -4663,22 +4675,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="C122" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="D122" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="E122" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="F122" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G122" t="n">
-        <v>2467.666666666667</v>
+        <v>2468.15</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4702,22 +4714,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2455</v>
+        <v>2444</v>
       </c>
       <c r="C123" t="n">
-        <v>2455</v>
+        <v>2444</v>
       </c>
       <c r="D123" t="n">
-        <v>2455</v>
+        <v>2444</v>
       </c>
       <c r="E123" t="n">
-        <v>2455</v>
+        <v>2444</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G123" t="n">
-        <v>2467.366666666667</v>
+        <v>2467.666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4741,22 +4753,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="C124" t="n">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="D124" t="n">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="E124" t="n">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="F124" t="n">
-        <v>79.9571</v>
+        <v>1</v>
       </c>
       <c r="G124" t="n">
-        <v>2467.016666666667</v>
+        <v>2467.366666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4780,22 +4792,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="C125" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="D125" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="E125" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="F125" t="n">
-        <v>6.2621</v>
+        <v>79.9571</v>
       </c>
       <c r="G125" t="n">
-        <v>2466.733333333333</v>
+        <v>2467.016666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4819,22 +4831,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="C126" t="n">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="D126" t="n">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="E126" t="n">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="F126" t="n">
-        <v>104.9929</v>
+        <v>6.2621</v>
       </c>
       <c r="G126" t="n">
-        <v>2466.433333333333</v>
+        <v>2466.733333333333</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4858,22 +4870,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="C127" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="D127" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="E127" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="F127" t="n">
-        <v>187.4247</v>
+        <v>104.9929</v>
       </c>
       <c r="G127" t="n">
-        <v>2466.1</v>
+        <v>2466.433333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4900,19 +4912,19 @@
         <v>2450</v>
       </c>
       <c r="C128" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D128" t="n">
         <v>2450</v>
       </c>
       <c r="E128" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="F128" t="n">
-        <v>45</v>
+        <v>187.4247</v>
       </c>
       <c r="G128" t="n">
-        <v>2465.733333333333</v>
+        <v>2466.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4936,22 +4948,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C129" t="n">
         <v>2448</v>
       </c>
       <c r="D129" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="E129" t="n">
         <v>2448</v>
       </c>
       <c r="F129" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G129" t="n">
-        <v>2465.366666666667</v>
+        <v>2465.733333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4975,22 +4987,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="C130" t="n">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="D130" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="E130" t="n">
-        <v>2451</v>
+        <v>2448</v>
       </c>
       <c r="F130" t="n">
-        <v>9.68</v>
+        <v>25</v>
       </c>
       <c r="G130" t="n">
-        <v>2465.05</v>
+        <v>2465.366666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5014,22 +5026,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="C131" t="n">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="D131" t="n">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E131" t="n">
-        <v>2455</v>
+        <v>2451</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>9.68</v>
       </c>
       <c r="G131" t="n">
-        <v>2464.7</v>
+        <v>2465.05</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5056,19 +5068,19 @@
         <v>2455</v>
       </c>
       <c r="C132" t="n">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D132" t="n">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E132" t="n">
         <v>2455</v>
       </c>
       <c r="F132" t="n">
-        <v>37.12068024439918</v>
+        <v>1</v>
       </c>
       <c r="G132" t="n">
-        <v>2464.35</v>
+        <v>2464.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5092,7 +5104,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="C133" t="n">
         <v>2456</v>
@@ -5101,13 +5113,13 @@
         <v>2456</v>
       </c>
       <c r="E133" t="n">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="F133" t="n">
-        <v>1189.0215</v>
+        <v>37.12068024439918</v>
       </c>
       <c r="G133" t="n">
-        <v>2464</v>
+        <v>2464.35</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5134,19 +5146,19 @@
         <v>2456</v>
       </c>
       <c r="C134" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="D134" t="n">
         <v>2456</v>
       </c>
       <c r="E134" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="F134" t="n">
-        <v>1962.8916</v>
+        <v>1189.0215</v>
       </c>
       <c r="G134" t="n">
-        <v>2463.6</v>
+        <v>2464</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5170,22 +5182,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="C135" t="n">
         <v>2450</v>
       </c>
       <c r="D135" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="E135" t="n">
         <v>2450</v>
       </c>
       <c r="F135" t="n">
-        <v>218.3712</v>
+        <v>1962.8916</v>
       </c>
       <c r="G135" t="n">
-        <v>2463.2</v>
+        <v>2463.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5221,10 +5233,10 @@
         <v>2450</v>
       </c>
       <c r="F136" t="n">
-        <v>122.4347</v>
+        <v>218.3712</v>
       </c>
       <c r="G136" t="n">
-        <v>2462.7</v>
+        <v>2463.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5251,19 +5263,19 @@
         <v>2450</v>
       </c>
       <c r="C137" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="D137" t="n">
         <v>2450</v>
       </c>
       <c r="E137" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="F137" t="n">
-        <v>1039.5931</v>
+        <v>122.4347</v>
       </c>
       <c r="G137" t="n">
-        <v>2462.15</v>
+        <v>2462.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5287,22 +5299,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="C138" t="n">
         <v>2448</v>
       </c>
       <c r="D138" t="n">
-        <v>2448</v>
+        <v>2450</v>
       </c>
       <c r="E138" t="n">
         <v>2448</v>
       </c>
       <c r="F138" t="n">
-        <v>200</v>
+        <v>1039.5931</v>
       </c>
       <c r="G138" t="n">
-        <v>2461.633333333333</v>
+        <v>2462.15</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5338,10 +5350,10 @@
         <v>2448</v>
       </c>
       <c r="F139" t="n">
-        <v>41.4705</v>
+        <v>200</v>
       </c>
       <c r="G139" t="n">
-        <v>2461.083333333333</v>
+        <v>2461.633333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5377,10 +5389,10 @@
         <v>2448</v>
       </c>
       <c r="F140" t="n">
-        <v>4.2696</v>
+        <v>41.4705</v>
       </c>
       <c r="G140" t="n">
-        <v>2460.55</v>
+        <v>2461.083333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5404,22 +5416,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2453</v>
+        <v>2448</v>
       </c>
       <c r="C141" t="n">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D141" t="n">
-        <v>2460</v>
+        <v>2448</v>
       </c>
       <c r="E141" t="n">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="F141" t="n">
-        <v>5263.883416666667</v>
+        <v>4.2696</v>
       </c>
       <c r="G141" t="n">
-        <v>2460.016666666667</v>
+        <v>2460.55</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5446,19 +5458,19 @@
         <v>2453</v>
       </c>
       <c r="C142" t="n">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="D142" t="n">
-        <v>2453</v>
+        <v>2460</v>
       </c>
       <c r="E142" t="n">
-        <v>2453</v>
+        <v>2449</v>
       </c>
       <c r="F142" t="n">
-        <v>11.53322462291072</v>
+        <v>5263.883416666667</v>
       </c>
       <c r="G142" t="n">
-        <v>2459.566666666667</v>
+        <v>2460.016666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5482,22 +5494,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="C143" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="D143" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="E143" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="F143" t="n">
-        <v>199.86</v>
+        <v>11.53322462291072</v>
       </c>
       <c r="G143" t="n">
-        <v>2459.05</v>
+        <v>2459.566666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5524,19 +5536,19 @@
         <v>2449</v>
       </c>
       <c r="C144" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D144" t="n">
         <v>2449</v>
       </c>
       <c r="E144" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="F144" t="n">
-        <v>1252.7347</v>
+        <v>199.86</v>
       </c>
       <c r="G144" t="n">
-        <v>2458.516666666667</v>
+        <v>2459.05</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5560,22 +5572,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>2449</v>
+      </c>
+      <c r="C145" t="n">
         <v>2448</v>
       </c>
-      <c r="C145" t="n">
-        <v>2447</v>
-      </c>
       <c r="D145" t="n">
+        <v>2449</v>
+      </c>
+      <c r="E145" t="n">
         <v>2448</v>
       </c>
-      <c r="E145" t="n">
-        <v>2447</v>
-      </c>
       <c r="F145" t="n">
-        <v>1144.9408</v>
+        <v>1252.7347</v>
       </c>
       <c r="G145" t="n">
-        <v>2457.966666666667</v>
+        <v>2458.516666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5599,22 +5611,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C146" t="n">
         <v>2447</v>
       </c>
       <c r="D146" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="E146" t="n">
         <v>2447</v>
       </c>
       <c r="F146" t="n">
-        <v>2400.5797</v>
+        <v>1144.9408</v>
       </c>
       <c r="G146" t="n">
-        <v>2457.4</v>
+        <v>2457.966666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5638,22 +5650,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="C147" t="n">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="D147" t="n">
-        <v>2445</v>
+        <v>2447</v>
       </c>
       <c r="E147" t="n">
-        <v>2444</v>
+        <v>2447</v>
       </c>
       <c r="F147" t="n">
-        <v>1192.0381</v>
+        <v>2400.5797</v>
       </c>
       <c r="G147" t="n">
-        <v>2456.783333333333</v>
+        <v>2457.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5677,22 +5689,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C148" t="n">
         <v>2444</v>
       </c>
-      <c r="C148" t="n">
-        <v>2442</v>
-      </c>
       <c r="D148" t="n">
+        <v>2445</v>
+      </c>
+      <c r="E148" t="n">
         <v>2444</v>
       </c>
-      <c r="E148" t="n">
-        <v>2442</v>
-      </c>
       <c r="F148" t="n">
-        <v>1264.7935</v>
+        <v>1192.0381</v>
       </c>
       <c r="G148" t="n">
-        <v>2456.15</v>
+        <v>2456.783333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5716,22 +5728,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C149" t="n">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="D149" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="E149" t="n">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>1264.7935</v>
       </c>
       <c r="G149" t="n">
-        <v>2455.533333333333</v>
+        <v>2456.15</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5755,7 +5767,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="C150" t="n">
         <v>2443</v>
@@ -5764,13 +5776,13 @@
         <v>2443</v>
       </c>
       <c r="E150" t="n">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="F150" t="n">
-        <v>877.9551</v>
+        <v>1</v>
       </c>
       <c r="G150" t="n">
-        <v>2454.916666666667</v>
+        <v>2455.533333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5794,22 +5806,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
+        <v>2442</v>
+      </c>
+      <c r="C151" t="n">
         <v>2443</v>
       </c>
-      <c r="C151" t="n">
-        <v>2444</v>
-      </c>
       <c r="D151" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E151" t="n">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="F151" t="n">
-        <v>15.7763</v>
+        <v>877.9551</v>
       </c>
       <c r="G151" t="n">
-        <v>2454.383333333333</v>
+        <v>2454.916666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5833,7 +5845,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="C152" t="n">
         <v>2444</v>
@@ -5842,13 +5854,13 @@
         <v>2444</v>
       </c>
       <c r="E152" t="n">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="F152" t="n">
-        <v>78.2937</v>
+        <v>15.7763</v>
       </c>
       <c r="G152" t="n">
-        <v>2453.85</v>
+        <v>2454.383333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5875,19 +5887,19 @@
         <v>2444</v>
       </c>
       <c r="C153" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="D153" t="n">
         <v>2444</v>
       </c>
       <c r="E153" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F153" t="n">
-        <v>3800.5104</v>
+        <v>78.2937</v>
       </c>
       <c r="G153" t="n">
-        <v>2453.216666666667</v>
+        <v>2453.85</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5914,19 +5926,19 @@
         <v>2444</v>
       </c>
       <c r="C154" t="n">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="D154" t="n">
         <v>2444</v>
       </c>
       <c r="E154" t="n">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="F154" t="n">
-        <v>4574.756</v>
+        <v>3800.5104</v>
       </c>
       <c r="G154" t="n">
-        <v>2452.5</v>
+        <v>2453.216666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5950,22 +5962,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2441</v>
+        <v>2444</v>
       </c>
       <c r="C155" t="n">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="D155" t="n">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="E155" t="n">
-        <v>2441</v>
+        <v>2437</v>
       </c>
       <c r="F155" t="n">
-        <v>142.1199</v>
+        <v>4574.756</v>
       </c>
       <c r="G155" t="n">
-        <v>2451.916666666667</v>
+        <v>2452.5</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5989,22 +6001,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="C156" t="n">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="D156" t="n">
-        <v>2443</v>
+        <v>2450</v>
       </c>
       <c r="E156" t="n">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="F156" t="n">
-        <v>175.3052</v>
+        <v>142.1199</v>
       </c>
       <c r="G156" t="n">
-        <v>2451.45</v>
+        <v>2451.916666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6031,19 +6043,19 @@
         <v>2443</v>
       </c>
       <c r="C157" t="n">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="D157" t="n">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="E157" t="n">
         <v>2443</v>
       </c>
       <c r="F157" t="n">
-        <v>1960.523</v>
+        <v>175.3052</v>
       </c>
       <c r="G157" t="n">
-        <v>2451.1</v>
+        <v>2451.45</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6067,7 +6079,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="C158" t="n">
         <v>2450</v>
@@ -6076,13 +6088,13 @@
         <v>2450</v>
       </c>
       <c r="E158" t="n">
-        <v>2450</v>
+        <v>2443</v>
       </c>
       <c r="F158" t="n">
-        <v>8.5</v>
+        <v>1960.523</v>
       </c>
       <c r="G158" t="n">
-        <v>2450.766666666667</v>
+        <v>2451.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6106,22 +6118,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="C159" t="n">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="D159" t="n">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="E159" t="n">
-        <v>2444</v>
+        <v>2450</v>
       </c>
       <c r="F159" t="n">
         <v>8.5</v>
       </c>
       <c r="G159" t="n">
-        <v>2450.333333333333</v>
+        <v>2450.766666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6145,22 +6157,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="C160" t="n">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="D160" t="n">
-        <v>2450</v>
+        <v>2444</v>
       </c>
       <c r="E160" t="n">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="F160" t="n">
-        <v>1336.7634</v>
+        <v>8.5</v>
       </c>
       <c r="G160" t="n">
-        <v>2449.916666666667</v>
+        <v>2450.333333333333</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6187,19 +6199,19 @@
         <v>2450</v>
       </c>
       <c r="C161" t="n">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="D161" t="n">
         <v>2450</v>
       </c>
       <c r="E161" t="n">
-        <v>2450</v>
+        <v>2446</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5</v>
+        <v>1336.7634</v>
       </c>
       <c r="G161" t="n">
-        <v>2449.7</v>
+        <v>2449.916666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6223,22 +6235,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C162" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D162" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E162" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F162" t="n">
-        <v>19.5</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="n">
-        <v>2449.466666666667</v>
+        <v>2449.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6262,22 +6274,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C163" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D163" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E163" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F163" t="n">
-        <v>899.8722</v>
+        <v>19.5</v>
       </c>
       <c r="G163" t="n">
-        <v>2449.3</v>
+        <v>2449.466666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6301,22 +6313,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="C164" t="n">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="D164" t="n">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="E164" t="n">
-        <v>2447</v>
+        <v>2450</v>
       </c>
       <c r="F164" t="n">
-        <v>50</v>
+        <v>899.8722</v>
       </c>
       <c r="G164" t="n">
-        <v>2449.083333333333</v>
+        <v>2449.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6340,22 +6352,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="C165" t="n">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="D165" t="n">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="E165" t="n">
-        <v>2450</v>
+        <v>2447</v>
       </c>
       <c r="F165" t="n">
-        <v>237.6017</v>
+        <v>50</v>
       </c>
       <c r="G165" t="n">
-        <v>2448.933333333333</v>
+        <v>2449.083333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6379,22 +6391,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="C166" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D166" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E166" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F166" t="n">
-        <v>20</v>
+        <v>237.6017</v>
       </c>
       <c r="G166" t="n">
-        <v>2448.833333333333</v>
+        <v>2448.933333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6418,22 +6430,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="C167" t="n">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="D167" t="n">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="E167" t="n">
-        <v>2457</v>
+        <v>2451</v>
       </c>
       <c r="F167" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G167" t="n">
-        <v>2448.866666666667</v>
+        <v>2448.833333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6457,22 +6469,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="C168" t="n">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="D168" t="n">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="E168" t="n">
-        <v>2461</v>
+        <v>2457</v>
       </c>
       <c r="F168" t="n">
-        <v>18.2334</v>
+        <v>100</v>
       </c>
       <c r="G168" t="n">
-        <v>2448.966666666667</v>
+        <v>2448.866666666667</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6508,10 +6520,10 @@
         <v>2461</v>
       </c>
       <c r="F169" t="n">
-        <v>13.6185</v>
+        <v>18.2334</v>
       </c>
       <c r="G169" t="n">
-        <v>2449.066666666667</v>
+        <v>2448.966666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6535,22 +6547,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="C170" t="n">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="D170" t="n">
-        <v>2471</v>
+        <v>2461</v>
       </c>
       <c r="E170" t="n">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="F170" t="n">
-        <v>404.7430917037636</v>
+        <v>13.6185</v>
       </c>
       <c r="G170" t="n">
-        <v>2449.4</v>
+        <v>2449.066666666667</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6574,22 +6586,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="C171" t="n">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="D171" t="n">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="E171" t="n">
-        <v>2463</v>
+        <v>2470</v>
       </c>
       <c r="F171" t="n">
-        <v>120.0476</v>
+        <v>404.7430917037636</v>
       </c>
       <c r="G171" t="n">
-        <v>2449.583333333333</v>
+        <v>2449.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6613,22 +6625,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2472</v>
+        <v>2463</v>
       </c>
       <c r="C172" t="n">
-        <v>2471</v>
+        <v>2463</v>
       </c>
       <c r="D172" t="n">
-        <v>2475</v>
+        <v>2463</v>
       </c>
       <c r="E172" t="n">
-        <v>2470</v>
+        <v>2463</v>
       </c>
       <c r="F172" t="n">
-        <v>684.3527007272727</v>
+        <v>120.0476</v>
       </c>
       <c r="G172" t="n">
-        <v>2449.916666666667</v>
+        <v>2449.583333333333</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6652,22 +6664,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2467</v>
+        <v>2472</v>
       </c>
       <c r="C173" t="n">
-        <v>2467</v>
+        <v>2471</v>
       </c>
       <c r="D173" t="n">
-        <v>2467</v>
+        <v>2475</v>
       </c>
       <c r="E173" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="F173" t="n">
-        <v>50.1828</v>
+        <v>684.3527007272727</v>
       </c>
       <c r="G173" t="n">
-        <v>2450.233333333333</v>
+        <v>2449.916666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6691,22 +6703,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="C174" t="n">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="D174" t="n">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="E174" t="n">
-        <v>2470</v>
+        <v>2467</v>
       </c>
       <c r="F174" t="n">
-        <v>92.3092</v>
+        <v>50.1828</v>
       </c>
       <c r="G174" t="n">
-        <v>2450.55</v>
+        <v>2450.233333333333</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6742,57 +6754,63 @@
         <v>2470</v>
       </c>
       <c r="F175" t="n">
-        <v>27.2574</v>
+        <v>92.3092</v>
       </c>
       <c r="G175" t="n">
-        <v>2450.916666666667</v>
+        <v>2450.55</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C176" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="D176" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E176" t="n">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="F176" t="n">
-        <v>143.4417</v>
+        <v>27.2574</v>
       </c>
       <c r="G176" t="n">
-        <v>2451.2</v>
+        <v>2450.916666666667</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6802,22 +6820,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="C177" t="n">
         <v>2467</v>
       </c>
       <c r="D177" t="n">
-        <v>2467</v>
+        <v>2469</v>
       </c>
       <c r="E177" t="n">
         <v>2467</v>
       </c>
       <c r="F177" t="n">
-        <v>32.1974</v>
+        <v>143.4417</v>
       </c>
       <c r="G177" t="n">
-        <v>2451.45</v>
+        <v>2451.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6827,7 +6845,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6837,22 +6859,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="C178" t="n">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D178" t="n">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E178" t="n">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="F178" t="n">
-        <v>248.2641659643436</v>
+        <v>32.1974</v>
       </c>
       <c r="G178" t="n">
-        <v>2451.783333333333</v>
+        <v>2451.45</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6862,7 +6884,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6872,22 +6898,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="C179" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="D179" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="E179" t="n">
-        <v>2465</v>
+        <v>2468</v>
       </c>
       <c r="F179" t="n">
-        <v>100</v>
+        <v>248.2641659643436</v>
       </c>
       <c r="G179" t="n">
-        <v>2452.083333333333</v>
+        <v>2451.783333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6897,7 +6923,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6907,22 +6937,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="C180" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="D180" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="E180" t="n">
-        <v>2470</v>
+        <v>2465</v>
       </c>
       <c r="F180" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G180" t="n">
-        <v>2452.383333333333</v>
+        <v>2452.083333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6932,7 +6962,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6954,10 +6988,10 @@
         <v>2470</v>
       </c>
       <c r="F181" t="n">
-        <v>22.5598</v>
+        <v>52</v>
       </c>
       <c r="G181" t="n">
-        <v>2452.8</v>
+        <v>2452.383333333333</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6967,7 +7001,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6977,22 +7015,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="C182" t="n">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="D182" t="n">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="E182" t="n">
-        <v>2465</v>
+        <v>2470</v>
       </c>
       <c r="F182" t="n">
-        <v>884.2479</v>
+        <v>22.5598</v>
       </c>
       <c r="G182" t="n">
-        <v>2453.15</v>
+        <v>2452.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7002,7 +7040,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7012,22 +7054,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="C183" t="n">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="D183" t="n">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="E183" t="n">
-        <v>2460</v>
+        <v>2465</v>
       </c>
       <c r="F183" t="n">
-        <v>18.8217</v>
+        <v>884.2479</v>
       </c>
       <c r="G183" t="n">
-        <v>2453.233333333333</v>
+        <v>2453.15</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7037,7 +7079,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7059,10 +7105,10 @@
         <v>2460</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5937</v>
+        <v>18.8217</v>
       </c>
       <c r="G184" t="n">
-        <v>2453.366666666667</v>
+        <v>2453.233333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7072,7 +7118,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7082,22 +7132,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="C185" t="n">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="D185" t="n">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="E185" t="n">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="F185" t="n">
-        <v>100</v>
+        <v>0.5937</v>
       </c>
       <c r="G185" t="n">
-        <v>2453.5</v>
+        <v>2453.366666666667</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7107,7 +7157,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7117,22 +7171,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="C186" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="D186" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="E186" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="F186" t="n">
-        <v>411.5174</v>
+        <v>100</v>
       </c>
       <c r="G186" t="n">
-        <v>2453.6</v>
+        <v>2453.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7142,7 +7196,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7164,10 +7222,10 @@
         <v>2460</v>
       </c>
       <c r="F187" t="n">
-        <v>71.4392</v>
+        <v>411.5174</v>
       </c>
       <c r="G187" t="n">
-        <v>2453.766666666667</v>
+        <v>2453.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7177,7 +7235,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7187,22 +7249,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="C188" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D188" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="E188" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="F188" t="n">
-        <v>483.3496</v>
+        <v>71.4392</v>
       </c>
       <c r="G188" t="n">
-        <v>2453.933333333333</v>
+        <v>2453.766666666667</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7212,7 +7274,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7222,22 +7288,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="C189" t="n">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="D189" t="n">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="E189" t="n">
-        <v>2456</v>
+        <v>2458</v>
       </c>
       <c r="F189" t="n">
-        <v>1043.2046</v>
+        <v>483.3496</v>
       </c>
       <c r="G189" t="n">
-        <v>2454.066666666667</v>
+        <v>2453.933333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7247,7 +7313,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7257,22 +7327,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C190" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="D190" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="E190" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="F190" t="n">
-        <v>693.4727</v>
+        <v>1043.2046</v>
       </c>
       <c r="G190" t="n">
-        <v>2454.116666666667</v>
+        <v>2454.066666666667</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7282,7 +7352,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7292,22 +7366,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="C191" t="n">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="D191" t="n">
-        <v>2450</v>
+        <v>2454</v>
       </c>
       <c r="E191" t="n">
-        <v>2449</v>
+        <v>2454</v>
       </c>
       <c r="F191" t="n">
-        <v>417.4762</v>
+        <v>693.4727</v>
       </c>
       <c r="G191" t="n">
-        <v>2454.016666666667</v>
+        <v>2454.116666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7317,7 +7391,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7327,22 +7405,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C192" t="n">
         <v>2449</v>
       </c>
-      <c r="C192" t="n">
-        <v>2448</v>
-      </c>
       <c r="D192" t="n">
+        <v>2450</v>
+      </c>
+      <c r="E192" t="n">
         <v>2449</v>
       </c>
-      <c r="E192" t="n">
-        <v>2448</v>
-      </c>
       <c r="F192" t="n">
-        <v>112.9683</v>
+        <v>417.4762</v>
       </c>
       <c r="G192" t="n">
-        <v>2453.883333333333</v>
+        <v>2454.016666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7352,7 +7430,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7362,22 +7444,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C193" t="n">
         <v>2448</v>
       </c>
       <c r="D193" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E193" t="n">
         <v>2448</v>
       </c>
       <c r="F193" t="n">
-        <v>615.7627</v>
+        <v>112.9683</v>
       </c>
       <c r="G193" t="n">
-        <v>2453.75</v>
+        <v>2453.883333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7387,7 +7469,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7397,22 +7483,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="C194" t="n">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="D194" t="n">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="E194" t="n">
-        <v>2444</v>
+        <v>2448</v>
       </c>
       <c r="F194" t="n">
-        <v>554.9219000000001</v>
+        <v>615.7627</v>
       </c>
       <c r="G194" t="n">
-        <v>2453.65</v>
+        <v>2453.75</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7422,7 +7508,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7432,22 +7522,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="C195" t="n">
         <v>2444</v>
       </c>
       <c r="D195" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="E195" t="n">
         <v>2444</v>
       </c>
       <c r="F195" t="n">
-        <v>5.6351</v>
+        <v>554.9219000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>2453.55</v>
+        <v>2453.65</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7457,7 +7547,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7479,10 +7573,10 @@
         <v>2444</v>
       </c>
       <c r="F196" t="n">
-        <v>496.5994</v>
+        <v>5.6351</v>
       </c>
       <c r="G196" t="n">
-        <v>2453.45</v>
+        <v>2453.55</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7492,7 +7586,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7502,22 +7600,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="C197" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="D197" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="E197" t="n">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="F197" t="n">
-        <v>350</v>
+        <v>496.5994</v>
       </c>
       <c r="G197" t="n">
-        <v>2453.366666666667</v>
+        <v>2453.45</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7527,7 +7625,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7549,10 +7651,10 @@
         <v>2443</v>
       </c>
       <c r="F198" t="n">
-        <v>16.0299</v>
+        <v>350</v>
       </c>
       <c r="G198" t="n">
-        <v>2453.283333333333</v>
+        <v>2453.366666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7562,7 +7664,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7572,19 +7678,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="C199" t="n">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="D199" t="n">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="E199" t="n">
-        <v>2448</v>
+        <v>2443</v>
       </c>
       <c r="F199" t="n">
-        <v>400</v>
+        <v>16.0299</v>
       </c>
       <c r="G199" t="n">
         <v>2453.283333333333</v>
@@ -7597,7 +7703,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7607,22 +7717,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="C200" t="n">
-        <v>2443</v>
+        <v>2448</v>
       </c>
       <c r="D200" t="n">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E200" t="n">
-        <v>2443</v>
+        <v>2448</v>
       </c>
       <c r="F200" t="n">
-        <v>160.0724</v>
+        <v>400</v>
       </c>
       <c r="G200" t="n">
-        <v>2453.2</v>
+        <v>2453.283333333333</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7632,7 +7742,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7642,22 +7756,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="C201" t="n">
-        <v>2456</v>
+        <v>2443</v>
       </c>
       <c r="D201" t="n">
-        <v>2456</v>
+        <v>2449</v>
       </c>
       <c r="E201" t="n">
-        <v>2456</v>
+        <v>2443</v>
       </c>
       <c r="F201" t="n">
-        <v>16.629</v>
+        <v>160.0724</v>
       </c>
       <c r="G201" t="n">
-        <v>2453.316666666667</v>
+        <v>2453.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7667,7 +7781,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +7795,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="C202" t="n">
         <v>2456</v>
@@ -7686,13 +7804,13 @@
         <v>2456</v>
       </c>
       <c r="E202" t="n">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="F202" t="n">
-        <v>201</v>
+        <v>16.629</v>
       </c>
       <c r="G202" t="n">
-        <v>2453.366666666667</v>
+        <v>2453.316666666667</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7702,7 +7820,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7712,22 +7834,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="C203" t="n">
-        <v>2448</v>
+        <v>2456</v>
       </c>
       <c r="D203" t="n">
-        <v>2448</v>
+        <v>2456</v>
       </c>
       <c r="E203" t="n">
-        <v>2448</v>
+        <v>2455</v>
       </c>
       <c r="F203" t="n">
-        <v>10.4646</v>
+        <v>201</v>
       </c>
       <c r="G203" t="n">
-        <v>2453.35</v>
+        <v>2453.366666666667</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7737,7 +7859,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7747,22 +7873,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="C204" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="D204" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="E204" t="n">
-        <v>2454</v>
+        <v>2448</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5937</v>
+        <v>10.4646</v>
       </c>
       <c r="G204" t="n">
-        <v>2453.45</v>
+        <v>2453.35</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7772,7 +7898,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7782,22 +7912,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="C205" t="n">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="D205" t="n">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="E205" t="n">
-        <v>2463</v>
+        <v>2454</v>
       </c>
       <c r="F205" t="n">
-        <v>20</v>
+        <v>0.5937</v>
       </c>
       <c r="G205" t="n">
-        <v>2453.716666666667</v>
+        <v>2453.45</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7807,7 +7937,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7817,22 +7951,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="C206" t="n">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="D206" t="n">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="E206" t="n">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F206" t="n">
-        <v>186.4078</v>
+        <v>20</v>
       </c>
       <c r="G206" t="n">
-        <v>2454.016666666667</v>
+        <v>2453.716666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7842,7 +7976,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7852,22 +7990,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="C207" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D207" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="E207" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="F207" t="n">
-        <v>100</v>
+        <v>186.4078</v>
       </c>
       <c r="G207" t="n">
-        <v>2454.333333333333</v>
+        <v>2454.016666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7877,7 +8015,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7887,22 +8029,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="C208" t="n">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="D208" t="n">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="E208" t="n">
-        <v>2459</v>
+        <v>2463</v>
       </c>
       <c r="F208" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G208" t="n">
-        <v>2454.616666666667</v>
+        <v>2454.333333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7912,7 +8054,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7922,22 +8068,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="C209" t="n">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D209" t="n">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E209" t="n">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="F209" t="n">
-        <v>137.0359</v>
+        <v>20</v>
       </c>
       <c r="G209" t="n">
-        <v>2454.9</v>
+        <v>2454.616666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7947,7 +8093,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7957,22 +8107,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="C210" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="D210" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="E210" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="F210" t="n">
-        <v>5.4</v>
+        <v>137.0359</v>
       </c>
       <c r="G210" t="n">
-        <v>2455.266666666667</v>
+        <v>2454.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7982,7 +8132,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7992,22 +8146,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="C211" t="n">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="D211" t="n">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="E211" t="n">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="F211" t="n">
-        <v>225.2994</v>
+        <v>5.4</v>
       </c>
       <c r="G211" t="n">
-        <v>2455.516666666667</v>
+        <v>2455.266666666667</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8017,7 +8171,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8027,22 +8185,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2455</v>
+        <v>2457</v>
       </c>
       <c r="C212" t="n">
-        <v>2453</v>
+        <v>2459</v>
       </c>
       <c r="D212" t="n">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="E212" t="n">
-        <v>2453</v>
+        <v>2457</v>
       </c>
       <c r="F212" t="n">
-        <v>587.3155</v>
+        <v>225.2994</v>
       </c>
       <c r="G212" t="n">
-        <v>2455.666666666667</v>
+        <v>2455.516666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8052,7 +8210,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8062,22 +8224,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2458</v>
+        <v>2455</v>
       </c>
       <c r="C213" t="n">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="D213" t="n">
         <v>2458</v>
       </c>
       <c r="E213" t="n">
-        <v>2458</v>
+        <v>2453</v>
       </c>
       <c r="F213" t="n">
-        <v>2</v>
+        <v>587.3155</v>
       </c>
       <c r="G213" t="n">
-        <v>2455.916666666667</v>
+        <v>2455.666666666667</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8087,7 +8249,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8097,22 +8263,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="C214" t="n">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="D214" t="n">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="E214" t="n">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F214" t="n">
-        <v>417.015</v>
+        <v>2</v>
       </c>
       <c r="G214" t="n">
-        <v>2456.25</v>
+        <v>2455.916666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8122,7 +8288,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8135,19 +8305,19 @@
         <v>2457</v>
       </c>
       <c r="C215" t="n">
-        <v>2452</v>
+        <v>2457</v>
       </c>
       <c r="D215" t="n">
         <v>2457</v>
       </c>
       <c r="E215" t="n">
-        <v>2452</v>
+        <v>2457</v>
       </c>
       <c r="F215" t="n">
-        <v>254.8223</v>
+        <v>417.015</v>
       </c>
       <c r="G215" t="n">
-        <v>2456.433333333333</v>
+        <v>2456.25</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8157,7 +8327,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8167,22 +8341,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>2457</v>
+      </c>
+      <c r="C216" t="n">
         <v>2452</v>
       </c>
-      <c r="C216" t="n">
-        <v>2456</v>
-      </c>
       <c r="D216" t="n">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="E216" t="n">
         <v>2452</v>
       </c>
       <c r="F216" t="n">
-        <v>29.3348</v>
+        <v>254.8223</v>
       </c>
       <c r="G216" t="n">
-        <v>2456.65</v>
+        <v>2456.433333333333</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8192,7 +8366,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8205,19 +8383,19 @@
         <v>2452</v>
       </c>
       <c r="C217" t="n">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="D217" t="n">
-        <v>2452</v>
+        <v>2456</v>
       </c>
       <c r="E217" t="n">
         <v>2452</v>
       </c>
       <c r="F217" t="n">
-        <v>212.1832</v>
+        <v>29.3348</v>
       </c>
       <c r="G217" t="n">
-        <v>2456.683333333333</v>
+        <v>2456.65</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8227,7 +8405,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8249,10 +8431,10 @@
         <v>2452</v>
       </c>
       <c r="F218" t="n">
-        <v>159.5537</v>
+        <v>212.1832</v>
       </c>
       <c r="G218" t="n">
-        <v>2456.716666666667</v>
+        <v>2456.683333333333</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8262,7 +8444,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8284,10 +8470,10 @@
         <v>2452</v>
       </c>
       <c r="F219" t="n">
-        <v>27.6197</v>
+        <v>159.5537</v>
       </c>
       <c r="G219" t="n">
-        <v>2456.85</v>
+        <v>2456.716666666667</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8297,7 +8483,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8319,10 +8509,10 @@
         <v>2452</v>
       </c>
       <c r="F220" t="n">
-        <v>196.7935</v>
+        <v>27.6197</v>
       </c>
       <c r="G220" t="n">
-        <v>2456.95</v>
+        <v>2456.85</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8332,7 +8522,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8342,22 +8536,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="C221" t="n">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="D221" t="n">
-        <v>2458</v>
+        <v>2452</v>
       </c>
       <c r="E221" t="n">
-        <v>2456</v>
+        <v>2452</v>
       </c>
       <c r="F221" t="n">
-        <v>81.37021969080553</v>
+        <v>196.7935</v>
       </c>
       <c r="G221" t="n">
-        <v>2457.083333333333</v>
+        <v>2456.95</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8367,7 +8561,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8377,22 +8575,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="C222" t="n">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="D222" t="n">
-        <v>2454</v>
+        <v>2458</v>
       </c>
       <c r="E222" t="n">
-        <v>2454</v>
+        <v>2456</v>
       </c>
       <c r="F222" t="n">
-        <v>966.3834000000001</v>
+        <v>81.37021969080553</v>
       </c>
       <c r="G222" t="n">
-        <v>2457.166666666667</v>
+        <v>2457.083333333333</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8402,7 +8600,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8424,10 +8626,10 @@
         <v>2454</v>
       </c>
       <c r="F223" t="n">
-        <v>70.86199999999999</v>
+        <v>966.3834000000001</v>
       </c>
       <c r="G223" t="n">
-        <v>2457.233333333333</v>
+        <v>2457.166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8437,7 +8639,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8459,10 +8665,10 @@
         <v>2454</v>
       </c>
       <c r="F224" t="n">
-        <v>120.1796</v>
+        <v>70.86199999999999</v>
       </c>
       <c r="G224" t="n">
-        <v>2457.35</v>
+        <v>2457.233333333333</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8472,7 +8678,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8494,10 +8704,10 @@
         <v>2454</v>
       </c>
       <c r="F225" t="n">
-        <v>19.3538</v>
+        <v>120.1796</v>
       </c>
       <c r="G225" t="n">
-        <v>2457.416666666667</v>
+        <v>2457.35</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8507,7 +8717,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8529,10 +8743,10 @@
         <v>2454</v>
       </c>
       <c r="F226" t="n">
-        <v>260.0449</v>
+        <v>19.3538</v>
       </c>
       <c r="G226" t="n">
-        <v>2457.466666666667</v>
+        <v>2457.416666666667</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8542,7 +8756,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8552,22 +8770,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="C227" t="n">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="D227" t="n">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="E227" t="n">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="F227" t="n">
-        <v>1.0017</v>
+        <v>260.0449</v>
       </c>
       <c r="G227" t="n">
-        <v>2457.45</v>
+        <v>2457.466666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8577,7 +8795,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8599,10 +8821,10 @@
         <v>2456</v>
       </c>
       <c r="F228" t="n">
-        <v>662.7287</v>
+        <v>1.0017</v>
       </c>
       <c r="G228" t="n">
-        <v>2457.366666666667</v>
+        <v>2457.45</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8612,7 +8834,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8622,22 +8848,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="C229" t="n">
         <v>2456</v>
       </c>
       <c r="D229" t="n">
-        <v>2460</v>
+        <v>2456</v>
       </c>
       <c r="E229" t="n">
         <v>2456</v>
       </c>
       <c r="F229" t="n">
-        <v>374.2986</v>
+        <v>662.7287</v>
       </c>
       <c r="G229" t="n">
-        <v>2457.283333333333</v>
+        <v>2457.366666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8647,7 +8873,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8657,22 +8887,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="C230" t="n">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="D230" t="n">
-        <v>2465</v>
+        <v>2460</v>
       </c>
       <c r="E230" t="n">
-        <v>2465</v>
+        <v>2456</v>
       </c>
       <c r="F230" t="n">
-        <v>0.24</v>
+        <v>374.2986</v>
       </c>
       <c r="G230" t="n">
-        <v>2457.183333333333</v>
+        <v>2457.283333333333</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8682,7 +8912,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8692,22 +8926,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="C231" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="D231" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="E231" t="n">
-        <v>2462</v>
+        <v>2465</v>
       </c>
       <c r="F231" t="n">
-        <v>570.862</v>
+        <v>0.24</v>
       </c>
       <c r="G231" t="n">
-        <v>2457.166666666667</v>
+        <v>2457.183333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8717,7 +8951,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8727,22 +8965,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="C232" t="n">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="D232" t="n">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="E232" t="n">
-        <v>2458</v>
+        <v>2462</v>
       </c>
       <c r="F232" t="n">
-        <v>570</v>
+        <v>570.862</v>
       </c>
       <c r="G232" t="n">
-        <v>2456.95</v>
+        <v>2457.166666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8752,7 +8990,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8774,10 +9016,10 @@
         <v>2458</v>
       </c>
       <c r="F233" t="n">
-        <v>1.0124</v>
+        <v>570</v>
       </c>
       <c r="G233" t="n">
-        <v>2456.8</v>
+        <v>2456.95</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8787,7 +9029,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8797,22 +9043,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="C234" t="n">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="D234" t="n">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="E234" t="n">
-        <v>2467</v>
+        <v>2458</v>
       </c>
       <c r="F234" t="n">
-        <v>120</v>
+        <v>1.0124</v>
       </c>
       <c r="G234" t="n">
-        <v>2456.75</v>
+        <v>2456.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8822,7 +9068,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8832,22 +9082,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="C235" t="n">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="D235" t="n">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="E235" t="n">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="F235" t="n">
-        <v>1406.783</v>
+        <v>120</v>
       </c>
       <c r="G235" t="n">
-        <v>2456.733333333333</v>
+        <v>2456.75</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8857,7 +9107,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8867,22 +9121,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C236" t="n">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="D236" t="n">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="E236" t="n">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="F236" t="n">
-        <v>1250</v>
+        <v>1406.783</v>
       </c>
       <c r="G236" t="n">
-        <v>2456.633333333333</v>
+        <v>2456.733333333333</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8892,7 +9146,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8902,22 +9160,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="C237" t="n">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D237" t="n">
-        <v>2470</v>
+        <v>2461</v>
       </c>
       <c r="E237" t="n">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="F237" t="n">
-        <v>1276.4874</v>
+        <v>1250</v>
       </c>
       <c r="G237" t="n">
-        <v>2456.55</v>
+        <v>2456.633333333333</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8927,7 +9185,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8937,22 +9199,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="C238" t="n">
-        <v>2473</v>
+        <v>2462</v>
       </c>
       <c r="D238" t="n">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="E238" t="n">
-        <v>2473</v>
+        <v>2462</v>
       </c>
       <c r="F238" t="n">
-        <v>526.085</v>
+        <v>1276.4874</v>
       </c>
       <c r="G238" t="n">
-        <v>2456.633333333333</v>
+        <v>2456.55</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8962,7 +9224,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8972,22 +9238,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="C239" t="n">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="D239" t="n">
-        <v>2477</v>
+        <v>2473</v>
       </c>
       <c r="E239" t="n">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="F239" t="n">
-        <v>545</v>
+        <v>526.085</v>
       </c>
       <c r="G239" t="n">
-        <v>2456.833333333333</v>
+        <v>2456.633333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8997,7 +9263,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9007,7 +9277,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="C240" t="n">
         <v>2477</v>
@@ -9016,13 +9286,13 @@
         <v>2477</v>
       </c>
       <c r="E240" t="n">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="F240" t="n">
-        <v>41.9602</v>
+        <v>545</v>
       </c>
       <c r="G240" t="n">
-        <v>2456.95</v>
+        <v>2456.833333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9032,7 +9302,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9054,20 +9328,24 @@
         <v>2477</v>
       </c>
       <c r="F241" t="n">
-        <v>452.1004</v>
+        <v>41.9602</v>
       </c>
       <c r="G241" t="n">
-        <v>2457.066666666667</v>
+        <v>2456.95</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9089,10 +9367,10 @@
         <v>2477</v>
       </c>
       <c r="F242" t="n">
-        <v>158</v>
+        <v>452.1004</v>
       </c>
       <c r="G242" t="n">
-        <v>2457.266666666667</v>
+        <v>2457.066666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9102,10 +9380,12 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9124,16 +9404,16 @@
         <v>2477</v>
       </c>
       <c r="F243" t="n">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="G243" t="n">
-        <v>2457.55</v>
+        <v>2457.266666666667</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
@@ -9147,28 +9427,28 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2484</v>
+        <v>2477</v>
       </c>
       <c r="C244" t="n">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="D244" t="n">
-        <v>2484</v>
+        <v>2477</v>
       </c>
       <c r="E244" t="n">
-        <v>2475</v>
+        <v>2477</v>
       </c>
       <c r="F244" t="n">
-        <v>2063.4636</v>
+        <v>120</v>
       </c>
       <c r="G244" t="n">
-        <v>2457.8</v>
+        <v>2457.55</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
@@ -9182,22 +9462,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2475</v>
+        <v>2484</v>
       </c>
       <c r="C245" t="n">
         <v>2475</v>
       </c>
       <c r="D245" t="n">
-        <v>2475</v>
+        <v>2484</v>
       </c>
       <c r="E245" t="n">
         <v>2475</v>
       </c>
       <c r="F245" t="n">
-        <v>77.7534</v>
+        <v>2063.4636</v>
       </c>
       <c r="G245" t="n">
-        <v>2458</v>
+        <v>2457.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9217,22 +9497,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C246" t="n">
-        <v>2482</v>
+        <v>2475</v>
       </c>
       <c r="D246" t="n">
-        <v>2482</v>
+        <v>2475</v>
       </c>
       <c r="E246" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="F246" t="n">
-        <v>358.8085</v>
+        <v>77.7534</v>
       </c>
       <c r="G246" t="n">
-        <v>2458.366666666667</v>
+        <v>2458</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9255,19 +9535,19 @@
         <v>2474</v>
       </c>
       <c r="C247" t="n">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="D247" t="n">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="E247" t="n">
         <v>2474</v>
       </c>
       <c r="F247" t="n">
-        <v>12.0319</v>
+        <v>358.8085</v>
       </c>
       <c r="G247" t="n">
-        <v>2458.6</v>
+        <v>2458.366666666667</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9287,22 +9567,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="C248" t="n">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D248" t="n">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E248" t="n">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="F248" t="n">
-        <v>36.0752</v>
+        <v>12.0319</v>
       </c>
       <c r="G248" t="n">
-        <v>2458.883333333333</v>
+        <v>2458.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9325,19 +9605,19 @@
         <v>2475</v>
       </c>
       <c r="C249" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="D249" t="n">
         <v>2475</v>
       </c>
       <c r="E249" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="F249" t="n">
-        <v>97.13460000000001</v>
+        <v>36.0752</v>
       </c>
       <c r="G249" t="n">
-        <v>2459.183333333333</v>
+        <v>2458.883333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9369,10 +9649,10 @@
         <v>2474</v>
       </c>
       <c r="F250" t="n">
-        <v>190.3053</v>
+        <v>97.13460000000001</v>
       </c>
       <c r="G250" t="n">
-        <v>2459.516666666667</v>
+        <v>2459.183333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9392,28 +9672,28 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="C251" t="n">
         <v>2474</v>
       </c>
       <c r="D251" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="E251" t="n">
         <v>2474</v>
       </c>
       <c r="F251" t="n">
-        <v>40.2629</v>
+        <v>190.3053</v>
       </c>
       <c r="G251" t="n">
-        <v>2459.933333333333</v>
+        <v>2459.516666666667</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
@@ -9427,28 +9707,28 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="C252" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="D252" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="E252" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="F252" t="n">
-        <v>18.4681</v>
+        <v>40.2629</v>
       </c>
       <c r="G252" t="n">
-        <v>2460.35</v>
+        <v>2459.933333333333</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
@@ -9474,16 +9754,16 @@
         <v>2473</v>
       </c>
       <c r="F253" t="n">
-        <v>41.8591</v>
+        <v>18.4681</v>
       </c>
       <c r="G253" t="n">
-        <v>2460.766666666667</v>
+        <v>2460.35</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
@@ -9497,28 +9777,28 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="C254" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D254" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E254" t="n">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="F254" t="n">
-        <v>292.8389</v>
+        <v>41.8591</v>
       </c>
       <c r="G254" t="n">
-        <v>2461.266666666667</v>
+        <v>2460.766666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
@@ -9544,16 +9824,16 @@
         <v>2474</v>
       </c>
       <c r="F255" t="n">
-        <v>246.9059</v>
+        <v>292.8389</v>
       </c>
       <c r="G255" t="n">
-        <v>2461.766666666667</v>
+        <v>2461.266666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
@@ -9567,28 +9847,28 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="C256" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="D256" t="n">
-        <v>2480</v>
+        <v>2474</v>
       </c>
       <c r="E256" t="n">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="F256" t="n">
-        <v>203.6074</v>
+        <v>246.9059</v>
       </c>
       <c r="G256" t="n">
-        <v>2462.25</v>
+        <v>2461.766666666667</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9602,22 +9882,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
+        <v>2480</v>
+      </c>
+      <c r="C257" t="n">
         <v>2473</v>
       </c>
-      <c r="C257" t="n">
-        <v>2472</v>
-      </c>
       <c r="D257" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E257" t="n">
         <v>2473</v>
       </c>
-      <c r="E257" t="n">
-        <v>2472</v>
-      </c>
       <c r="F257" t="n">
-        <v>972.4142000000001</v>
+        <v>203.6074</v>
       </c>
       <c r="G257" t="n">
-        <v>2462.733333333333</v>
+        <v>2462.25</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9637,22 +9917,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
+        <v>2473</v>
+      </c>
+      <c r="C258" t="n">
         <v>2472</v>
       </c>
-      <c r="C258" t="n">
-        <v>2464</v>
-      </c>
       <c r="D258" t="n">
+        <v>2473</v>
+      </c>
+      <c r="E258" t="n">
         <v>2472</v>
       </c>
-      <c r="E258" t="n">
-        <v>2464</v>
-      </c>
       <c r="F258" t="n">
-        <v>676.2872</v>
+        <v>972.4142000000001</v>
       </c>
       <c r="G258" t="n">
-        <v>2463.083333333333</v>
+        <v>2462.733333333333</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9672,22 +9952,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C259" t="n">
         <v>2464</v>
       </c>
-      <c r="C259" t="n">
-        <v>2473</v>
-      </c>
       <c r="D259" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E259" t="n">
         <v>2464</v>
       </c>
       <c r="F259" t="n">
-        <v>2.21</v>
+        <v>676.2872</v>
       </c>
       <c r="G259" t="n">
-        <v>2463.5</v>
+        <v>2463.083333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9710,19 +9990,19 @@
         <v>2464</v>
       </c>
       <c r="C260" t="n">
-        <v>2464</v>
+        <v>2473</v>
       </c>
       <c r="D260" t="n">
-        <v>2464</v>
+        <v>2473</v>
       </c>
       <c r="E260" t="n">
         <v>2464</v>
       </c>
       <c r="F260" t="n">
-        <v>281.9398</v>
+        <v>2.21</v>
       </c>
       <c r="G260" t="n">
-        <v>2463.85</v>
+        <v>2463.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9742,22 +10022,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="C261" t="n">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="D261" t="n">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="E261" t="n">
-        <v>2472</v>
+        <v>2464</v>
       </c>
       <c r="F261" t="n">
-        <v>0.21</v>
+        <v>281.9398</v>
       </c>
       <c r="G261" t="n">
-        <v>2464.116666666667</v>
+        <v>2463.85</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9789,10 +10069,10 @@
         <v>2472</v>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>0.21</v>
       </c>
       <c r="G262" t="n">
-        <v>2464.383333333333</v>
+        <v>2464.116666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9812,22 +10092,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2461</v>
+        <v>2472</v>
       </c>
       <c r="C263" t="n">
-        <v>2461</v>
+        <v>2472</v>
       </c>
       <c r="D263" t="n">
-        <v>2461</v>
+        <v>2472</v>
       </c>
       <c r="E263" t="n">
-        <v>2461</v>
+        <v>2472</v>
       </c>
       <c r="F263" t="n">
-        <v>499.9913</v>
+        <v>150</v>
       </c>
       <c r="G263" t="n">
-        <v>2464.6</v>
+        <v>2464.383333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9859,10 +10139,10 @@
         <v>2461</v>
       </c>
       <c r="F264" t="n">
-        <v>1.07</v>
+        <v>499.9913</v>
       </c>
       <c r="G264" t="n">
-        <v>2464.716666666667</v>
+        <v>2464.6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9882,22 +10162,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="C265" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="D265" t="n">
-        <v>2466</v>
+        <v>2461</v>
       </c>
       <c r="E265" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="F265" t="n">
-        <v>15.6939</v>
+        <v>1.07</v>
       </c>
       <c r="G265" t="n">
-        <v>2464.75</v>
+        <v>2464.716666666667</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9917,22 +10197,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="C266" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="D266" t="n">
-        <v>2471</v>
+        <v>2466</v>
       </c>
       <c r="E266" t="n">
-        <v>2463</v>
+        <v>2465</v>
       </c>
       <c r="F266" t="n">
-        <v>100</v>
+        <v>15.6939</v>
       </c>
       <c r="G266" t="n">
-        <v>2464.716666666667</v>
+        <v>2464.75</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9952,22 +10232,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="C267" t="n">
-        <v>2472</v>
+        <v>2463</v>
       </c>
       <c r="D267" t="n">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E267" t="n">
-        <v>2472</v>
+        <v>2463</v>
       </c>
       <c r="F267" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G267" t="n">
-        <v>2464.866666666667</v>
+        <v>2464.716666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9987,22 +10267,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C268" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D268" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E268" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F268" t="n">
-        <v>194.8361</v>
+        <v>1</v>
       </c>
       <c r="G268" t="n">
-        <v>2465.1</v>
+        <v>2464.866666666667</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10034,10 +10314,10 @@
         <v>2473</v>
       </c>
       <c r="F269" t="n">
-        <v>882.3486</v>
+        <v>194.8361</v>
       </c>
       <c r="G269" t="n">
-        <v>2465.316666666667</v>
+        <v>2465.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10069,10 +10349,10 @@
         <v>2473</v>
       </c>
       <c r="F270" t="n">
-        <v>1</v>
+        <v>882.3486</v>
       </c>
       <c r="G270" t="n">
-        <v>2465.45</v>
+        <v>2465.316666666667</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10092,22 +10372,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="C271" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="D271" t="n">
         <v>2473</v>
       </c>
       <c r="E271" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F271" t="n">
-        <v>1139.2075</v>
+        <v>1</v>
       </c>
       <c r="G271" t="n">
-        <v>2465.666666666667</v>
+        <v>2465.45</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10133,16 +10413,16 @@
         <v>2472</v>
       </c>
       <c r="D272" t="n">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="E272" t="n">
         <v>2472</v>
       </c>
       <c r="F272" t="n">
-        <v>1</v>
+        <v>1139.2075</v>
       </c>
       <c r="G272" t="n">
-        <v>2465.983333333333</v>
+        <v>2465.666666666667</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10162,22 +10442,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="C273" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D273" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E273" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="F273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G273" t="n">
-        <v>2466.233333333333</v>
+        <v>2465.983333333333</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -10197,22 +10477,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>2468</v>
+        <v>2473</v>
       </c>
       <c r="C274" t="n">
-        <v>2460</v>
+        <v>2473</v>
       </c>
       <c r="D274" t="n">
-        <v>2468</v>
+        <v>2473</v>
       </c>
       <c r="E274" t="n">
-        <v>2460</v>
+        <v>2473</v>
       </c>
       <c r="F274" t="n">
-        <v>901</v>
+        <v>2</v>
       </c>
       <c r="G274" t="n">
-        <v>2466.283333333333</v>
+        <v>2466.233333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10232,22 +10512,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="C275" t="n">
-        <v>2471</v>
+        <v>2460</v>
       </c>
       <c r="D275" t="n">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="E275" t="n">
-        <v>2471</v>
+        <v>2460</v>
       </c>
       <c r="F275" t="n">
-        <v>435.2595</v>
+        <v>901</v>
       </c>
       <c r="G275" t="n">
-        <v>2466.6</v>
+        <v>2466.283333333333</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10279,10 +10559,10 @@
         <v>2471</v>
       </c>
       <c r="F276" t="n">
-        <v>3</v>
+        <v>435.2595</v>
       </c>
       <c r="G276" t="n">
-        <v>2466.85</v>
+        <v>2466.6</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10302,22 +10582,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="C277" t="n">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="D277" t="n">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="E277" t="n">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="F277" t="n">
-        <v>386.5913</v>
+        <v>3</v>
       </c>
       <c r="G277" t="n">
-        <v>2467.216666666667</v>
+        <v>2466.85</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10337,22 +10617,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2469</v>
+        <v>2473</v>
       </c>
       <c r="C278" t="n">
-        <v>2467</v>
+        <v>2474</v>
       </c>
       <c r="D278" t="n">
-        <v>2469</v>
+        <v>2474</v>
       </c>
       <c r="E278" t="n">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="F278" t="n">
-        <v>185.3349</v>
+        <v>386.5913</v>
       </c>
       <c r="G278" t="n">
-        <v>2467.466666666667</v>
+        <v>2467.216666666667</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10372,22 +10652,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C279" t="n">
         <v>2467</v>
       </c>
-      <c r="C279" t="n">
-        <v>2459</v>
-      </c>
       <c r="D279" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E279" t="n">
         <v>2467</v>
       </c>
-      <c r="E279" t="n">
-        <v>2459</v>
-      </c>
       <c r="F279" t="n">
-        <v>334.2375</v>
+        <v>185.3349</v>
       </c>
       <c r="G279" t="n">
-        <v>2467.583333333333</v>
+        <v>2467.466666666667</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10407,22 +10687,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="C280" t="n">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="D280" t="n">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="E280" t="n">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="F280" t="n">
-        <v>1.1466</v>
+        <v>334.2375</v>
       </c>
       <c r="G280" t="n">
-        <v>2467.866666666667</v>
+        <v>2467.583333333333</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10442,22 +10722,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="C281" t="n">
-        <v>2460</v>
+        <v>2469</v>
       </c>
       <c r="D281" t="n">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E281" t="n">
-        <v>2460</v>
+        <v>2469</v>
       </c>
       <c r="F281" t="n">
-        <v>1855.9363</v>
+        <v>1.1466</v>
       </c>
       <c r="G281" t="n">
-        <v>2467.9</v>
+        <v>2467.866666666667</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10480,19 +10760,19 @@
         <v>2470</v>
       </c>
       <c r="C282" t="n">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="D282" t="n">
         <v>2470</v>
       </c>
       <c r="E282" t="n">
-        <v>2470</v>
+        <v>2460</v>
       </c>
       <c r="F282" t="n">
-        <v>11.311</v>
+        <v>1855.9363</v>
       </c>
       <c r="G282" t="n">
-        <v>2468.166666666667</v>
+        <v>2467.9</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10524,10 +10804,10 @@
         <v>2470</v>
       </c>
       <c r="F283" t="n">
-        <v>24.2307</v>
+        <v>11.311</v>
       </c>
       <c r="G283" t="n">
-        <v>2468.433333333333</v>
+        <v>2468.166666666667</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10547,22 +10827,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="C284" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="D284" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="E284" t="n">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="F284" t="n">
-        <v>24.2409</v>
+        <v>24.2307</v>
       </c>
       <c r="G284" t="n">
-        <v>2468.683333333333</v>
+        <v>2468.433333333333</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10582,22 +10862,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="C285" t="n">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="D285" t="n">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="E285" t="n">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F285" t="n">
-        <v>0.21</v>
+        <v>24.2409</v>
       </c>
       <c r="G285" t="n">
-        <v>2468.966666666667</v>
+        <v>2468.683333333333</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10629,10 +10909,10 @@
         <v>2471</v>
       </c>
       <c r="F286" t="n">
-        <v>375.9366</v>
+        <v>0.21</v>
       </c>
       <c r="G286" t="n">
-        <v>2469.25</v>
+        <v>2468.966666666667</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10652,22 +10932,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="C287" t="n">
-        <v>2466</v>
+        <v>2471</v>
       </c>
       <c r="D287" t="n">
-        <v>2468</v>
+        <v>2471</v>
       </c>
       <c r="E287" t="n">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="F287" t="n">
-        <v>140</v>
+        <v>375.9366</v>
       </c>
       <c r="G287" t="n">
-        <v>2469.416666666667</v>
+        <v>2469.25</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10687,22 +10967,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2459</v>
+        <v>2468</v>
       </c>
       <c r="C288" t="n">
-        <v>2459</v>
+        <v>2466</v>
       </c>
       <c r="D288" t="n">
-        <v>2459</v>
+        <v>2468</v>
       </c>
       <c r="E288" t="n">
-        <v>2459</v>
+        <v>2465</v>
       </c>
       <c r="F288" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="G288" t="n">
-        <v>2469.466666666667</v>
+        <v>2469.416666666667</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10725,19 +11005,19 @@
         <v>2459</v>
       </c>
       <c r="C289" t="n">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="D289" t="n">
         <v>2459</v>
       </c>
       <c r="E289" t="n">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="F289" t="n">
-        <v>123.3811</v>
+        <v>22</v>
       </c>
       <c r="G289" t="n">
-        <v>2469.5</v>
+        <v>2469.466666666667</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10757,22 +11037,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="C290" t="n">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="D290" t="n">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="E290" t="n">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="F290" t="n">
-        <v>48.76066639577407</v>
+        <v>123.3811</v>
       </c>
       <c r="G290" t="n">
-        <v>2469.433333333333</v>
+        <v>2469.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10792,22 +11072,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="C291" t="n">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="D291" t="n">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="E291" t="n">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="F291" t="n">
-        <v>119</v>
+        <v>48.76066639577407</v>
       </c>
       <c r="G291" t="n">
-        <v>2469.316666666667</v>
+        <v>2469.433333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10827,22 +11107,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
+        <v>2458</v>
+      </c>
+      <c r="C292" t="n">
         <v>2455</v>
       </c>
-      <c r="C292" t="n">
-        <v>2453</v>
-      </c>
       <c r="D292" t="n">
+        <v>2458</v>
+      </c>
+      <c r="E292" t="n">
         <v>2455</v>
       </c>
-      <c r="E292" t="n">
-        <v>2453</v>
-      </c>
       <c r="F292" t="n">
-        <v>345</v>
+        <v>119</v>
       </c>
       <c r="G292" t="n">
-        <v>2469.233333333333</v>
+        <v>2469.316666666667</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10862,22 +11142,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C293" t="n">
         <v>2453</v>
       </c>
-      <c r="C293" t="n">
-        <v>2450</v>
-      </c>
       <c r="D293" t="n">
+        <v>2455</v>
+      </c>
+      <c r="E293" t="n">
         <v>2453</v>
       </c>
-      <c r="E293" t="n">
-        <v>2450</v>
-      </c>
       <c r="F293" t="n">
-        <v>629.9026</v>
+        <v>345</v>
       </c>
       <c r="G293" t="n">
-        <v>2469.1</v>
+        <v>2469.233333333333</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10897,22 +11177,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="C294" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D294" t="n">
-        <v>2449</v>
+        <v>2453</v>
       </c>
       <c r="E294" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F294" t="n">
-        <v>959</v>
+        <v>629.9026</v>
       </c>
       <c r="G294" t="n">
-        <v>2468.8</v>
+        <v>2469.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10932,22 +11212,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="C295" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D295" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E295" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F295" t="n">
-        <v>69.06789999999999</v>
+        <v>959</v>
       </c>
       <c r="G295" t="n">
-        <v>2468.483333333333</v>
+        <v>2468.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10970,19 +11250,19 @@
         <v>2450</v>
       </c>
       <c r="C296" t="n">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="D296" t="n">
-        <v>2456</v>
+        <v>2450</v>
       </c>
       <c r="E296" t="n">
         <v>2450</v>
       </c>
       <c r="F296" t="n">
-        <v>2653.2617</v>
+        <v>69.06789999999999</v>
       </c>
       <c r="G296" t="n">
-        <v>2468.4</v>
+        <v>2468.483333333333</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11002,32 +11282,38 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C297" t="n">
         <v>2456</v>
-      </c>
-      <c r="C297" t="n">
-        <v>2451</v>
       </c>
       <c r="D297" t="n">
         <v>2456</v>
       </c>
       <c r="E297" t="n">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="F297" t="n">
-        <v>1321.6176</v>
+        <v>2653.2617</v>
       </c>
       <c r="G297" t="n">
-        <v>2468.216666666667</v>
+        <v>2468.4</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2450</v>
+      </c>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11037,32 +11323,38 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="C298" t="n">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="D298" t="n">
-        <v>2450</v>
+        <v>2456</v>
       </c>
       <c r="E298" t="n">
-        <v>2449</v>
+        <v>2451</v>
       </c>
       <c r="F298" t="n">
-        <v>1011.5773</v>
+        <v>1321.6176</v>
       </c>
       <c r="G298" t="n">
-        <v>2467.816666666667</v>
+        <v>2468.216666666667</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2456</v>
+      </c>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11075,29 +11367,35 @@
         <v>2450</v>
       </c>
       <c r="C299" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D299" t="n">
         <v>2450</v>
       </c>
       <c r="E299" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="F299" t="n">
-        <v>163.96</v>
+        <v>1011.5773</v>
       </c>
       <c r="G299" t="n">
-        <v>2467.366666666667</v>
+        <v>2467.816666666667</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2451</v>
+      </c>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11110,29 +11408,35 @@
         <v>2450</v>
       </c>
       <c r="C300" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D300" t="n">
         <v>2450</v>
       </c>
       <c r="E300" t="n">
+        <v>2450</v>
+      </c>
+      <c r="F300" t="n">
+        <v>163.96</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2467.366666666667</v>
+      </c>
+      <c r="H300" t="n">
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
         <v>2449</v>
       </c>
-      <c r="F300" t="n">
-        <v>3545</v>
-      </c>
-      <c r="G300" t="n">
-        <v>2466.9</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11145,29 +11449,35 @@
         <v>2450</v>
       </c>
       <c r="C301" t="n">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D301" t="n">
         <v>2450</v>
       </c>
       <c r="E301" t="n">
+        <v>2449</v>
+      </c>
+      <c r="F301" t="n">
+        <v>3545</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2466.9</v>
+      </c>
+      <c r="H301" t="n">
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>0</v>
+      </c>
+      <c r="J301" t="n">
         <v>2450</v>
       </c>
-      <c r="F301" t="n">
-        <v>203.9579</v>
-      </c>
-      <c r="G301" t="n">
-        <v>2466.45</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11180,19 +11490,19 @@
         <v>2450</v>
       </c>
       <c r="C302" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="D302" t="n">
         <v>2450</v>
       </c>
       <c r="E302" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="F302" t="n">
-        <v>945</v>
+        <v>203.9579</v>
       </c>
       <c r="G302" t="n">
-        <v>2465.983333333333</v>
+        <v>2466.45</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11202,7 +11512,11 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11224,20 +11538,26 @@
         <v>2449</v>
       </c>
       <c r="F303" t="n">
-        <v>135.5378</v>
+        <v>945</v>
       </c>
       <c r="G303" t="n">
-        <v>2465.516666666667</v>
+        <v>2465.983333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2450</v>
+      </c>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11247,32 +11567,38 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="C304" t="n">
         <v>2449</v>
       </c>
       <c r="D304" t="n">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="E304" t="n">
         <v>2449</v>
       </c>
       <c r="F304" t="n">
-        <v>2305.9214</v>
+        <v>135.5378</v>
       </c>
       <c r="G304" t="n">
-        <v>2465.083333333333</v>
+        <v>2465.516666666667</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2449</v>
+      </c>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11294,20 +11620,26 @@
         <v>2449</v>
       </c>
       <c r="F305" t="n">
-        <v>4584.3431</v>
+        <v>2305.9214</v>
       </c>
       <c r="G305" t="n">
-        <v>2464.65</v>
+        <v>2465.083333333333</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2449</v>
+      </c>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11329,20 +11661,26 @@
         <v>2449</v>
       </c>
       <c r="F306" t="n">
-        <v>175.795</v>
+        <v>4584.3431</v>
       </c>
       <c r="G306" t="n">
-        <v>2464.1</v>
+        <v>2464.65</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2449</v>
+      </c>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11364,20 +11702,26 @@
         <v>2449</v>
       </c>
       <c r="F307" t="n">
-        <v>82.238</v>
+        <v>175.795</v>
       </c>
       <c r="G307" t="n">
-        <v>2463.683333333333</v>
+        <v>2464.1</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>2449</v>
+      </c>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11399,20 +11743,26 @@
         <v>2449</v>
       </c>
       <c r="F308" t="n">
-        <v>12.74</v>
+        <v>82.238</v>
       </c>
       <c r="G308" t="n">
-        <v>2463.25</v>
+        <v>2463.683333333333</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>2449</v>
+      </c>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11425,29 +11775,35 @@
         <v>2449</v>
       </c>
       <c r="C309" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="D309" t="n">
         <v>2449</v>
       </c>
       <c r="E309" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="F309" t="n">
-        <v>55.5209</v>
+        <v>12.74</v>
       </c>
       <c r="G309" t="n">
-        <v>2462.816666666667</v>
+        <v>2463.25</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>2449</v>
+      </c>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11457,32 +11813,38 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="C310" t="n">
         <v>2448</v>
       </c>
       <c r="D310" t="n">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="E310" t="n">
         <v>2448</v>
       </c>
       <c r="F310" t="n">
-        <v>50.9069</v>
+        <v>55.5209</v>
       </c>
       <c r="G310" t="n">
-        <v>2462.383333333333</v>
+        <v>2462.816666666667</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>2449</v>
+      </c>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11492,7 +11854,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="C311" t="n">
         <v>2448</v>
@@ -11501,13 +11863,13 @@
         <v>2448</v>
       </c>
       <c r="E311" t="n">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F311" t="n">
-        <v>462.6231</v>
+        <v>50.9069</v>
       </c>
       <c r="G311" t="n">
-        <v>2461.95</v>
+        <v>2462.383333333333</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11517,7 +11879,11 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11527,7 +11893,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="C312" t="n">
         <v>2448</v>
@@ -11536,13 +11902,13 @@
         <v>2448</v>
       </c>
       <c r="E312" t="n">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="F312" t="n">
-        <v>31.8198</v>
+        <v>462.6231</v>
       </c>
       <c r="G312" t="n">
-        <v>2461.533333333333</v>
+        <v>2461.95</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11552,7 +11918,11 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11562,32 +11932,38 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="C313" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="D313" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="E313" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="F313" t="n">
-        <v>1</v>
+        <v>31.8198</v>
       </c>
       <c r="G313" t="n">
-        <v>2461.3</v>
+        <v>2461.533333333333</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>2448</v>
+      </c>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11597,22 +11973,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="C314" t="n">
-        <v>2448</v>
+        <v>2459</v>
       </c>
       <c r="D314" t="n">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="E314" t="n">
-        <v>2448</v>
+        <v>2459</v>
       </c>
       <c r="F314" t="n">
-        <v>626.776</v>
+        <v>1</v>
       </c>
       <c r="G314" t="n">
-        <v>2460.866666666667</v>
+        <v>2461.3</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11622,7 +11998,11 @@
       </c>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11632,22 +12012,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="C315" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="D315" t="n">
-        <v>2459</v>
+        <v>2462</v>
       </c>
       <c r="E315" t="n">
-        <v>2459</v>
+        <v>2448</v>
       </c>
       <c r="F315" t="n">
-        <v>20.3335</v>
+        <v>626.776</v>
       </c>
       <c r="G315" t="n">
-        <v>2460.616666666667</v>
+        <v>2460.866666666667</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11657,7 +12037,11 @@
       </c>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -11679,10 +12063,10 @@
         <v>2459</v>
       </c>
       <c r="F316" t="n">
-        <v>6</v>
+        <v>20.3335</v>
       </c>
       <c r="G316" t="n">
-        <v>2460.383333333333</v>
+        <v>2460.616666666667</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11692,7 +12076,11 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -11702,22 +12090,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="C317" t="n">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="D317" t="n">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="E317" t="n">
-        <v>2452</v>
+        <v>2459</v>
       </c>
       <c r="F317" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="G317" t="n">
-        <v>2460.05</v>
+        <v>2460.383333333333</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11727,7 +12115,11 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -11737,22 +12129,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="C318" t="n">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="D318" t="n">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="E318" t="n">
-        <v>2460</v>
+        <v>2452</v>
       </c>
       <c r="F318" t="n">
-        <v>200</v>
+        <v>0.4</v>
       </c>
       <c r="G318" t="n">
-        <v>2459.983333333333</v>
+        <v>2460.05</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11762,7 +12154,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -11772,22 +12168,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="C319" t="n">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D319" t="n">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E319" t="n">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="F319" t="n">
-        <v>0.21</v>
+        <v>200</v>
       </c>
       <c r="G319" t="n">
-        <v>2459.783333333333</v>
+        <v>2459.983333333333</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11797,7 +12193,11 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -11807,22 +12207,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="C320" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="D320" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="E320" t="n">
-        <v>2465</v>
+        <v>2461</v>
       </c>
       <c r="F320" t="n">
-        <v>47.87018255578094</v>
+        <v>0.21</v>
       </c>
       <c r="G320" t="n">
-        <v>2459.8</v>
+        <v>2459.783333333333</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11832,7 +12232,11 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -11842,22 +12246,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="C321" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="D321" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="E321" t="n">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="F321" t="n">
-        <v>12.4458</v>
+        <v>47.87018255578094</v>
       </c>
       <c r="G321" t="n">
-        <v>2459.666666666667</v>
+        <v>2459.8</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11867,7 +12271,11 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -11889,10 +12297,10 @@
         <v>2464</v>
       </c>
       <c r="F322" t="n">
-        <v>291.5591</v>
+        <v>12.4458</v>
       </c>
       <c r="G322" t="n">
-        <v>2459.533333333333</v>
+        <v>2459.666666666667</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11902,8 +12310,51 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C323" t="n">
+        <v>2464</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2464</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2464</v>
+      </c>
+      <c r="F323" t="n">
+        <v>291.5591</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2459.533333333333</v>
+      </c>
+      <c r="H323" t="n">
+        <v>0</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0</v>
+      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M323" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest LINK.xlsx
+++ b/BackTest/2020-01-14 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,7 +2332,7 @@
         <v>-18933.79339697454</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-20607.42029697454</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2761,10 +2761,14 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2511</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2511</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2794,11 +2798,19 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2827,11 +2839,19 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,10 +2880,14 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2510</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2893,11 +2917,19 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +2958,19 @@
         <v>-23283.95499254416</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +2999,19 @@
         <v>-23540.42119254416</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2509</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3040,19 @@
         <v>-23762.36809254416</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2508</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3081,19 @@
         <v>-24486.14089254416</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2503</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3122,19 @@
         <v>-23241.22569254416</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3163,19 @@
         <v>-23594.93179254416</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2508</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3204,19 @@
         <v>-23807.96159254416</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2506</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3245,19 @@
         <v>-23794.17039254416</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2499</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3286,19 @@
         <v>-24279.04489254416</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3327,19 @@
         <v>-24519.36919254416</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2496</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3368,19 @@
         <v>-27539.20999254416</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2495</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3409,19 @@
         <v>-27726.91999254416</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2488</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3450,19 @@
         <v>-26138.54279254416</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3491,19 @@
         <v>-26607.32869254416</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2484</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,11 +3532,19 @@
         <v>-26844.11019254416</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2481</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3573,19 @@
         <v>-26555.24099254416</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2480</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3614,19 @@
         <v>-26554.63939254416</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2487</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3487,11 +3655,19 @@
         <v>-27840.45799254415</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2488</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3520,11 +3696,19 @@
         <v>-27729.17769254416</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3553,11 +3737,19 @@
         <v>-28172.44199254415</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2486</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3586,11 +3778,19 @@
         <v>-28116.85569254416</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,11 +3819,19 @@
         <v>-31311.09109254416</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2486</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3652,11 +3860,19 @@
         <v>-31311.09109254416</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,11 +3901,19 @@
         <v>-31311.09109254416</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3942,19 @@
         <v>-36187.23819254416</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2485</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3983,19 @@
         <v>-35734.18029254416</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3784,11 +4024,19 @@
         <v>-35744.18029254416</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2476</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +4065,19 @@
         <v>-35849.13269254416</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2475</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3852,9 +4108,17 @@
       <c r="H105" t="n">
         <v>1</v>
       </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +4147,19 @@
         <v>-35637.60239254416</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3918,9 +4190,17 @@
       <c r="H107" t="n">
         <v>1</v>
       </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3951,9 +4231,17 @@
       <c r="H108" t="n">
         <v>1</v>
       </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>2471</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3984,9 +4272,17 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4017,9 +4313,17 @@
       <c r="H110" t="n">
         <v>1</v>
       </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>2468</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4050,9 +4354,17 @@
       <c r="H111" t="n">
         <v>1</v>
       </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>2467</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4083,9 +4395,17 @@
       <c r="H112" t="n">
         <v>1</v>
       </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>2464</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4116,9 +4436,17 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>2465</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4149,9 +4477,17 @@
       <c r="H114" t="n">
         <v>1</v>
       </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4182,9 +4518,17 @@
       <c r="H115" t="n">
         <v>1</v>
       </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>2488</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4557,17 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4248,9 +4598,17 @@
       <c r="H117" t="n">
         <v>1</v>
       </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4281,9 +4639,17 @@
       <c r="H118" t="n">
         <v>1</v>
       </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4314,9 +4680,17 @@
       <c r="H119" t="n">
         <v>1</v>
       </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>2473</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4345,11 +4719,17 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4380,9 +4760,17 @@
       <c r="H121" t="n">
         <v>1</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>2473</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4413,9 +4801,17 @@
       <c r="H122" t="n">
         <v>1</v>
       </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>2473</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4446,9 +4842,17 @@
       <c r="H123" t="n">
         <v>1</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>2473</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4881,17 @@
         <v>-47603.49889254416</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4512,9 +4922,17 @@
       <c r="H125" t="n">
         <v>1</v>
       </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>2472</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +4961,17 @@
         <v>-47691.80069254417</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4578,9 +5002,17 @@
       <c r="H127" t="n">
         <v>1</v>
       </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5041,17 @@
         <v>-47691.80069254417</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5080,17 @@
         <v>-47691.80069254417</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5119,17 @@
         <v>-47591.80069254417</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5158,17 @@
         <v>-47471.62109254416</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5197,17 @@
         <v>-47471.62109254416</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5236,17 @@
         <v>-47648.31459254416</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5275,17 @@
         <v>-47648.31459254416</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5314,17 @@
         <v>-46648.31459254416</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5353,17 @@
         <v>-46642.19639254417</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5392,17 @@
         <v>-46642.40259254417</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5431,17 @@
         <v>-45787.04899254417</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5470,17 @@
         <v>-46501.06779254416</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5512,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5551,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5590,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5626,17 @@
         <v>-46320.67339254416</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5668,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5707,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5782,17 @@
         <v>-45749.63409254415</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5824,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5863,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5902,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5941,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5980,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6019,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6058,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6097,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6136,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6175,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6214,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6253,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6292,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6331,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,11 +6367,19 @@
         <v>-52905.87199254415</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2463</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5766,9 +6410,17 @@
       <c r="H163" t="n">
         <v>1</v>
       </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5799,9 +6451,17 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>2460</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6490,19 @@
         <v>-52910.47149254414</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2459</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5865,9 +6533,17 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>2457</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5898,9 +6574,17 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5931,9 +6615,17 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +6654,19 @@
         <v>-55336.02199254415</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J169" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,11 +6695,19 @@
         <v>-54762.36199254415</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2451</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6028,11 +6736,19 @@
         <v>-55205.16199254415</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2452</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6777,19 @@
         <v>-55347.47419254415</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2451</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6818,19 @@
         <v>-53698.65639254415</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2448</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6127,11 +6859,19 @@
         <v>-53780.15639254415</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2451</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6160,11 +6900,19 @@
         <v>-53232.55119254415</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2448</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6193,11 +6941,19 @@
         <v>-52374.43709254415</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2450</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6982,19 @@
         <v>-53616.38919254416</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2452</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,11 +7023,19 @@
         <v>-55120.85099254415</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2448</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +7064,19 @@
         <v>4320232.379707456</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>2447</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7108,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7147,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7186,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7225,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7264,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +7300,19 @@
         <v>4320039.691807455</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>2455</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +7341,19 @@
         <v>4319852.267107455</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>2454</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2510</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,15 +7382,17 @@
         <v>4319807.267107455</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>2450</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2510</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L187" t="n">
@@ -6595,12 +7423,14 @@
         <v>4319807.267107455</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>2448</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2510</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6634,12 +7464,12 @@
         <v>4319816.947107455</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>2510</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6673,12 +7503,14 @@
         <v>4319817.947107455</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>2451</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>2510</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,7 +7547,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>2510</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6752,7 +7586,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>2510</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6789,7 +7625,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>2510</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6826,7 +7664,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>2510</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6863,7 +7703,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>2510</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,12 +7739,12 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>2510</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6936,12 +7778,12 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>2510</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6975,12 +7817,14 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>2448</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>2510</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7014,12 +7858,14 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>2448</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>2510</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7056,7 +7902,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>2510</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7093,7 +7941,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>2510</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,7 +7980,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>2510</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7167,7 +8019,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>2510</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,10 +8055,14 @@
         <v>4319530.464228989</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2448</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2510</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,7 +8099,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>2510</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7278,7 +8138,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>2510</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7315,7 +8177,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>2510</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7349,10 +8213,14 @@
         <v>4317074.632628989</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>2442</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2510</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7389,7 +8257,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>2510</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,10 +8293,14 @@
         <v>4317090.408928989</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>2443</v>
+      </c>
+      <c r="J210" t="n">
+        <v>2510</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7463,7 +8337,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>2510</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7497,10 +8373,14 @@
         <v>4313289.898528989</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2444</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2510</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7537,7 +8417,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>2510</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7571,10 +8453,14 @@
         <v>4308857.26242899</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>2437</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2510</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7608,10 +8494,14 @@
         <v>4309032.56762899</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2441</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2510</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7645,10 +8535,14 @@
         <v>4310993.09062899</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>2443</v>
+      </c>
+      <c r="J216" t="n">
+        <v>2510</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7682,10 +8576,14 @@
         <v>4310993.09062899</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>2450</v>
+      </c>
+      <c r="J217" t="n">
+        <v>2510</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7719,10 +8617,14 @@
         <v>4310984.59062899</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2450</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2510</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,7 +8661,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>2510</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,7 +8700,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>2510</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,7 +8739,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>2510</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7867,10 +8775,14 @@
         <v>4313202.22622899</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>2449</v>
+      </c>
+      <c r="J222" t="n">
+        <v>2510</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,10 +8816,14 @@
         <v>4313152.22622899</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>2450</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2510</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7941,10 +8857,14 @@
         <v>4313389.82792899</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>2447</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2510</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,7 +8901,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>2510</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8018,7 +8940,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>2510</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,7 +8979,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>2510</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8092,7 +9018,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>2510</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8129,7 +9057,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>2510</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,7 +9096,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>2510</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8203,7 +9135,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>2510</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,7 +9174,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>2510</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8277,7 +9213,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>2510</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8314,7 +9252,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>2510</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8351,7 +9291,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>2510</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8388,7 +9330,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>2510</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8425,7 +9369,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>2510</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8462,7 +9408,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>2510</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,7 +9447,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>2510</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8536,7 +9486,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>2510</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8573,7 +9525,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>2510</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8610,7 +9564,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>2510</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8647,7 +9603,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>2510</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8684,7 +9642,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>2510</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8721,7 +9681,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>2510</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8758,7 +9720,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>2510</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8795,7 +9759,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>2510</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +9798,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>2510</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8869,7 +9837,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>2510</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8906,7 +9876,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>2510</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,12 +9912,12 @@
         <v>4310630.999987384</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>2449</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>2510</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8979,12 +9951,12 @@
         <v>4310630.999987384</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>2510</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9018,12 +9990,12 @@
         <v>4310076.078087384</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>2510</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9057,12 +10029,12 @@
         <v>4310076.078087384</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>2444</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>2510</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9096,12 +10068,12 @@
         <v>4310076.078087384</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>2444</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>2510</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9135,12 +10107,12 @@
         <v>4309726.078087384</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>2444</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>2510</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9174,12 +10146,12 @@
         <v>4309726.078087384</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>2443</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>2510</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9213,12 +10185,12 @@
         <v>4310126.078087384</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>2443</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>2510</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9252,12 +10224,12 @@
         <v>4309966.005687384</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>2510</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9291,12 +10263,12 @@
         <v>4309982.634687384</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>2443</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>2510</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,12 +10302,12 @@
         <v>4309982.634687384</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>2456</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>2510</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,12 +10341,12 @@
         <v>4309972.170087384</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>2456</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>2510</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9408,12 +10380,12 @@
         <v>4309972.763787384</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>2510</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9447,12 +10419,12 @@
         <v>4309992.763787384</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>2454</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>2510</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9486,12 +10458,12 @@
         <v>4310179.171587384</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>2463</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>2510</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9528,7 +10500,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>2510</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,7 +10539,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>2510</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9602,7 +10578,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>2510</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9639,7 +10617,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>2510</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9676,7 +10656,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>2510</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9713,7 +10695,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>2510</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9750,7 +10734,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>2510</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9787,7 +10773,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>2510</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9824,7 +10812,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>2510</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9861,7 +10851,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>2510</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9898,7 +10890,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>2510</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9935,7 +10929,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>2510</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9972,7 +10968,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>2510</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,7 +11007,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>2510</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10046,7 +11046,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>2510</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10083,7 +11085,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>2510</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10120,7 +11124,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>2510</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10157,7 +11163,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>2510</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10194,7 +11202,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>2510</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10231,7 +11241,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>2510</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10268,7 +11280,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>2510</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10305,7 +11319,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>2510</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10342,7 +11358,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>2510</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10379,7 +11397,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>2510</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10416,7 +11436,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>2510</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10453,7 +11475,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>2510</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10490,7 +11514,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>2510</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10527,7 +11553,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>2510</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10564,7 +11592,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>2510</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10601,7 +11631,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>2510</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,7 +11670,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>2510</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10675,7 +11709,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>2510</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10712,7 +11748,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>2510</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10749,7 +11787,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>2510</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10786,7 +11826,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>2510</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10823,7 +11865,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>2510</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10860,7 +11904,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>2510</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10897,7 +11943,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>2510</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10934,7 +11982,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>2510</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10971,7 +12021,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>2510</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11005,17 +12057,19 @@
         <v>4307419.341807077</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>2510</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L306" t="n">
-        <v>1</v>
+        <v>0.9806573705179282</v>
       </c>
       <c r="M306" t="inlineStr"/>
     </row>
@@ -11042,15 +12096,11 @@
         <v>4307455.417007077</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11079,15 +12129,11 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11116,15 +12162,11 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11153,15 +12195,11 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11190,15 +12228,11 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11227,15 +12261,11 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11264,15 +12294,11 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11301,15 +12327,11 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11338,15 +12360,11 @@
         <v>4307429.045807076</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11375,15 +12393,11 @@
         <v>4306456.631607075</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11412,16 +12426,14 @@
         <v>4305780.344407075</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
       <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
@@ -11447,7 +12459,7 @@
         <v>4305782.554407075</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11480,7 +12492,7 @@
         <v>4305500.614607075</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11513,7 +12525,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11546,7 +12558,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11579,7 +12591,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11612,7 +12624,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11645,7 +12657,7 @@
         <v>4305016.527207076</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11678,7 +12690,7 @@
         <v>4304916.527207076</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11711,7 +12723,7 @@
         <v>4304917.527207076</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11744,7 +12756,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11777,7 +12789,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11810,7 +12822,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11843,7 +12855,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11876,7 +12888,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11909,7 +12921,7 @@
         <v>4303975.155807076</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11942,7 +12954,7 @@
         <v>4303074.155807076</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11975,7 +12987,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12008,7 +13020,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12041,7 +13053,7 @@
         <v>4303896.006607076</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12074,7 +13086,7 @@
         <v>4303710.671707076</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12107,7 +13119,7 @@
         <v>4303376.434207076</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12140,7 +13152,7 @@
         <v>4303377.580807076</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12173,7 +13185,7 @@
         <v>4301521.644507076</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12206,7 +13218,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12239,7 +13251,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12272,7 +13284,7 @@
         <v>4301508.714607076</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12305,7 +13317,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12338,7 +13350,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12371,7 +13383,7 @@
         <v>4301368.924607076</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12404,7 +13416,7 @@
         <v>4301346.924607076</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12437,7 +13449,7 @@
         <v>4301223.543507076</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12470,7 +13482,7 @@
         <v>4301272.304173471</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12503,7 +13515,7 @@
         <v>4301153.304173471</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12536,7 +13548,7 @@
         <v>4300808.304173471</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12569,7 +13581,7 @@
         <v>4300178.401573472</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12602,7 +13614,7 @@
         <v>4299219.401573472</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12635,7 +13647,7 @@
         <v>4299288.469473472</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12668,7 +13680,7 @@
         <v>4301941.731173472</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12701,7 +13713,7 @@
         <v>4300620.113573471</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12734,7 +13746,7 @@
         <v>4299608.536273471</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12767,7 +13779,7 @@
         <v>4299772.496273471</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12800,7 +13812,7 @@
         <v>4296227.496273471</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12833,7 +13845,7 @@
         <v>4296431.454173471</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12866,7 +13878,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12899,7 +13911,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12932,7 +13944,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13460,7 +14472,7 @@
         <v>4295073.170956027</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13493,7 +14505,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13526,7 +14538,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13559,7 +14571,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13592,7 +14604,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13625,7 +14637,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13757,7 +14769,7 @@
         <v>4295124.20733265</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13823,7 +14835,7 @@
         <v>4295379.076360309</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13856,7 +14868,7 @@
         <v>4295360.225560308</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13867,6 +14879,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LINK.xlsx
+++ b/BackTest/2020-01-14 BackTest LINK.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2761,14 +2761,10 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2511</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2511</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
@@ -2798,19 +2794,11 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2510</v>
-      </c>
-      <c r="J73" t="n">
-        <v>2511</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2839,19 +2827,11 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2510</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2511</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,14 +2860,10 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2510</v>
-      </c>
-      <c r="J75" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
@@ -2917,19 +2893,11 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2510</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2958,19 +2926,11 @@
         <v>-23283.95499254416</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2510</v>
-      </c>
-      <c r="J77" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,1290 +2959,1040 @@
         <v>-23540.42119254416</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2509</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2508</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2503</v>
+      </c>
+      <c r="F79" t="n">
+        <v>221.9469</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-23762.36809254416</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2503</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F80" t="n">
+        <v>723.7728</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-24486.14089254416</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2508</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2508</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2500</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1244.9152</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-23241.22569254416</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2506</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2506</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2506</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2506</v>
+      </c>
+      <c r="F82" t="n">
+        <v>353.7061</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-23594.93179254416</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2499</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2499</v>
+      </c>
+      <c r="F83" t="n">
+        <v>213.0298</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-23807.96159254416</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F84" t="n">
+        <v>13.7912</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-23794.17039254416</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2496</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2496</v>
+      </c>
+      <c r="F85" t="n">
+        <v>484.8745</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-24279.04489254416</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2495</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2495</v>
+      </c>
+      <c r="D86" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2495</v>
+      </c>
+      <c r="F86" t="n">
+        <v>240.3243</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-24519.36919254416</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2496</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2488</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2496</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2488</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3019.8408</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-27539.20999254416</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F88" t="n">
+        <v>187.71</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-27726.91999254416</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2489</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2484</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2489</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2484</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1588.3772</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-26138.54279254416</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2481</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2481</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2481</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2481</v>
+      </c>
+      <c r="F90" t="n">
+        <v>468.7859</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-26607.32869254416</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2480</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2480</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2480</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2480</v>
+      </c>
+      <c r="F91" t="n">
+        <v>236.7815</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-26844.11019254416</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2487</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2487</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2487</v>
+      </c>
+      <c r="F92" t="n">
+        <v>288.8692</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-26555.24099254416</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2488</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2488</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.6016</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-26554.63939254416</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2487</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2487</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1285.8186</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-27840.45799254415</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2488</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2488</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2486</v>
+      </c>
+      <c r="F95" t="n">
+        <v>111.2803</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-27729.17769254416</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2486</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F96" t="n">
+        <v>443.2643</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-28172.44199254415</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2486</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2486</v>
+      </c>
+      <c r="F97" t="n">
+        <v>55.5863</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-28116.85569254416</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2486</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2490</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F98" t="n">
+        <v>3194.2354</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-31311.09109254416</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F99" t="n">
+        <v>91.173</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-31311.09109254416</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2490</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2485</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2490</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2485</v>
+      </c>
+      <c r="F100" t="n">
+        <v>127.0354</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-31311.09109254416</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2465</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2485</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2465</v>
+      </c>
+      <c r="F101" t="n">
+        <v>4876.1471</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-36187.23819254416</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2476</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2477</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2464</v>
+      </c>
+      <c r="F102" t="n">
+        <v>453.0579</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-35734.18029254416</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2475</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2475</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2475</v>
+      </c>
+      <c r="F103" t="n">
+        <v>10</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-35744.18029254416</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2470</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F104" t="n">
+        <v>104.9524</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-35849.13269254416</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2472</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2472</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2472</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2472</v>
+      </c>
+      <c r="F105" t="n">
+        <v>318.007</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-35531.12569254416</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2470</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F106" t="n">
+        <v>106.4767</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-35637.60239254416</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2475</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2471</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2475</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2471</v>
+      </c>
+      <c r="F107" t="n">
+        <v>26.7421</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-35610.86029254416</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2470</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2470</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2470</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2470</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-35610.86039254416</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2469</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2468</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2469</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2468</v>
+      </c>
+      <c r="F109" t="n">
+        <v>104.013</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-35714.87339254416</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2470</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="n">
-        <v>2508</v>
-      </c>
-      <c r="C79" t="n">
-        <v>2503</v>
-      </c>
-      <c r="D79" t="n">
-        <v>2508</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2503</v>
-      </c>
-      <c r="F79" t="n">
-        <v>221.9469</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-23762.36809254416</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2508</v>
-      </c>
-      <c r="J79" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="n">
-        <v>2503</v>
-      </c>
-      <c r="C80" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D80" t="n">
-        <v>2503</v>
-      </c>
-      <c r="E80" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F80" t="n">
-        <v>723.7728</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-24486.14089254416</v>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2503</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C81" t="n">
-        <v>2508</v>
-      </c>
-      <c r="D81" t="n">
-        <v>2508</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1244.9152</v>
-      </c>
-      <c r="G81" t="n">
-        <v>-23241.22569254416</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
-        <v>2506</v>
-      </c>
-      <c r="C82" t="n">
-        <v>2506</v>
-      </c>
-      <c r="D82" t="n">
-        <v>2506</v>
-      </c>
-      <c r="E82" t="n">
-        <v>2506</v>
-      </c>
-      <c r="F82" t="n">
-        <v>353.7061</v>
-      </c>
-      <c r="G82" t="n">
-        <v>-23594.93179254416</v>
-      </c>
-      <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2508</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>2500</v>
-      </c>
-      <c r="C83" t="n">
-        <v>2499</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E83" t="n">
-        <v>2499</v>
-      </c>
-      <c r="F83" t="n">
-        <v>213.0298</v>
-      </c>
-      <c r="G83" t="n">
-        <v>-23807.96159254416</v>
-      </c>
-      <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2506</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2500</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E84" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F84" t="n">
-        <v>13.7912</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-23794.17039254416</v>
-      </c>
-      <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2499</v>
-      </c>
-      <c r="J84" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2496</v>
-      </c>
-      <c r="D85" t="n">
-        <v>2496</v>
-      </c>
-      <c r="E85" t="n">
-        <v>2496</v>
-      </c>
-      <c r="F85" t="n">
-        <v>484.8745</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-24279.04489254416</v>
-      </c>
-      <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2500</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>2495</v>
-      </c>
-      <c r="C86" t="n">
-        <v>2495</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2495</v>
-      </c>
-      <c r="E86" t="n">
-        <v>2495</v>
-      </c>
-      <c r="F86" t="n">
-        <v>240.3243</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-24519.36919254416</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2496</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>2496</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2488</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2496</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2488</v>
-      </c>
-      <c r="F87" t="n">
-        <v>3019.8408</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-27539.20999254416</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2495</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C88" t="n">
-        <v>2480</v>
-      </c>
-      <c r="D88" t="n">
-        <v>2488</v>
-      </c>
-      <c r="E88" t="n">
-        <v>2480</v>
-      </c>
-      <c r="F88" t="n">
-        <v>187.71</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-27726.91999254416</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2488</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>2489</v>
-      </c>
-      <c r="C89" t="n">
-        <v>2484</v>
-      </c>
-      <c r="D89" t="n">
-        <v>2489</v>
-      </c>
-      <c r="E89" t="n">
-        <v>2484</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1588.3772</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-26138.54279254416</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2480</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>2481</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2481</v>
-      </c>
-      <c r="D90" t="n">
-        <v>2481</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2481</v>
-      </c>
-      <c r="F90" t="n">
-        <v>468.7859</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-26607.32869254416</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2484</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>2480</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2480</v>
-      </c>
-      <c r="D91" t="n">
-        <v>2480</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2480</v>
-      </c>
-      <c r="F91" t="n">
-        <v>236.7815</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-26844.11019254416</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2481</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>2487</v>
-      </c>
-      <c r="C92" t="n">
-        <v>2487</v>
-      </c>
-      <c r="D92" t="n">
-        <v>2487</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2487</v>
-      </c>
-      <c r="F92" t="n">
-        <v>288.8692</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-26555.24099254416</v>
-      </c>
-      <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2480</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C93" t="n">
-        <v>2488</v>
-      </c>
-      <c r="D93" t="n">
-        <v>2488</v>
-      </c>
-      <c r="E93" t="n">
-        <v>2488</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.6016</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-26554.63939254416</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2487</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>2487</v>
-      </c>
-      <c r="C94" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D94" t="n">
-        <v>2487</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F94" t="n">
-        <v>1285.8186</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-27840.45799254415</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2488</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>2488</v>
-      </c>
-      <c r="C95" t="n">
-        <v>2486</v>
-      </c>
-      <c r="D95" t="n">
-        <v>2488</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2486</v>
-      </c>
-      <c r="F95" t="n">
-        <v>111.2803</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-27729.17769254416</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J95" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C96" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D96" t="n">
-        <v>2486</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F96" t="n">
-        <v>443.2643</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-28172.44199254415</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2486</v>
-      </c>
-      <c r="J96" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C97" t="n">
-        <v>2486</v>
-      </c>
-      <c r="D97" t="n">
-        <v>2486</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2486</v>
-      </c>
-      <c r="F97" t="n">
-        <v>55.5863</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-28116.85569254416</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>2486</v>
-      </c>
-      <c r="C98" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D98" t="n">
-        <v>2490</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3194.2354</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-31311.09109254416</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2486</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>2485</v>
-      </c>
-      <c r="C99" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2485</v>
-      </c>
-      <c r="E99" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F99" t="n">
-        <v>91.173</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-31311.09109254416</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J99" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>2490</v>
-      </c>
-      <c r="C100" t="n">
-        <v>2485</v>
-      </c>
-      <c r="D100" t="n">
-        <v>2490</v>
-      </c>
-      <c r="E100" t="n">
-        <v>2485</v>
-      </c>
-      <c r="F100" t="n">
-        <v>127.0354</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-31311.09109254416</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>2485</v>
-      </c>
-      <c r="C101" t="n">
-        <v>2465</v>
-      </c>
-      <c r="D101" t="n">
-        <v>2485</v>
-      </c>
-      <c r="E101" t="n">
-        <v>2465</v>
-      </c>
-      <c r="F101" t="n">
-        <v>4876.1471</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-36187.23819254416</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2485</v>
-      </c>
-      <c r="J101" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>2464</v>
-      </c>
-      <c r="C102" t="n">
-        <v>2476</v>
-      </c>
-      <c r="D102" t="n">
-        <v>2477</v>
-      </c>
-      <c r="E102" t="n">
-        <v>2464</v>
-      </c>
-      <c r="F102" t="n">
-        <v>453.0579</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-35734.18029254416</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2465</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>2475</v>
-      </c>
-      <c r="C103" t="n">
-        <v>2475</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2475</v>
-      </c>
-      <c r="E103" t="n">
-        <v>2475</v>
-      </c>
-      <c r="F103" t="n">
-        <v>10</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-35744.18029254416</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2476</v>
-      </c>
-      <c r="J103" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>2470</v>
-      </c>
-      <c r="C104" t="n">
-        <v>2470</v>
-      </c>
-      <c r="D104" t="n">
-        <v>2470</v>
-      </c>
-      <c r="E104" t="n">
-        <v>2470</v>
-      </c>
-      <c r="F104" t="n">
-        <v>104.9524</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-35849.13269254416</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2475</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>2472</v>
-      </c>
-      <c r="C105" t="n">
-        <v>2472</v>
-      </c>
-      <c r="D105" t="n">
-        <v>2472</v>
-      </c>
-      <c r="E105" t="n">
-        <v>2472</v>
-      </c>
-      <c r="F105" t="n">
-        <v>318.007</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-35531.12569254416</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J105" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>2470</v>
-      </c>
-      <c r="C106" t="n">
-        <v>2470</v>
-      </c>
-      <c r="D106" t="n">
-        <v>2470</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2470</v>
-      </c>
-      <c r="F106" t="n">
-        <v>106.4767</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-35637.60239254416</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>2475</v>
-      </c>
-      <c r="C107" t="n">
-        <v>2471</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2475</v>
-      </c>
-      <c r="E107" t="n">
-        <v>2471</v>
-      </c>
-      <c r="F107" t="n">
-        <v>26.7421</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-35610.86029254416</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J107" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>2470</v>
-      </c>
-      <c r="C108" t="n">
-        <v>2470</v>
-      </c>
-      <c r="D108" t="n">
-        <v>2470</v>
-      </c>
-      <c r="E108" t="n">
-        <v>2470</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-35610.86039254416</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2471</v>
-      </c>
-      <c r="J108" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>2469</v>
-      </c>
-      <c r="C109" t="n">
-        <v>2468</v>
-      </c>
-      <c r="D109" t="n">
-        <v>2469</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2468</v>
-      </c>
-      <c r="F109" t="n">
-        <v>104.013</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-35714.87339254416</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J109" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4316,9 +4026,7 @@
       <c r="I110" t="n">
         <v>2468</v>
       </c>
-      <c r="J110" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,9 +4065,7 @@
       <c r="I111" t="n">
         <v>2467</v>
       </c>
-      <c r="J111" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,9 +4104,7 @@
       <c r="I112" t="n">
         <v>2464</v>
       </c>
-      <c r="J112" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4439,9 +4143,7 @@
       <c r="I113" t="n">
         <v>2465</v>
       </c>
-      <c r="J113" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4480,9 +4182,7 @@
       <c r="I114" t="n">
         <v>2470</v>
       </c>
-      <c r="J114" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4521,9 +4221,7 @@
       <c r="I115" t="n">
         <v>2488</v>
       </c>
-      <c r="J115" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4557,12 +4255,12 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2510</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2481</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4601,9 +4299,7 @@
       <c r="I117" t="n">
         <v>2472</v>
       </c>
-      <c r="J117" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,9 +4338,7 @@
       <c r="I118" t="n">
         <v>2472</v>
       </c>
-      <c r="J118" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4683,9 +4377,7 @@
       <c r="I119" t="n">
         <v>2473</v>
       </c>
-      <c r="J119" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,12 +4411,12 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2510</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2473</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,9 +4455,7 @@
       <c r="I121" t="n">
         <v>2473</v>
       </c>
-      <c r="J121" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,14 +4489,10 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>2473</v>
-      </c>
-      <c r="J122" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,14 +4526,10 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>2473</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4884,9 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4920,14 +4600,10 @@
         <v>-47603.49889254416</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>2472</v>
-      </c>
-      <c r="J125" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4964,9 +4640,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5000,14 +4674,10 @@
         <v>-47691.80069254417</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>2470</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,9 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,9 +4751,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +4788,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +4825,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5200,9 +4862,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5239,9 +4899,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +4936,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,9 +4973,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,9 +5010,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5395,9 +5047,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5434,9 +5084,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,9 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,9 +5158,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5551,9 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,9 +5232,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,9 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,9 +5306,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,9 +5343,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,9 +5380,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,9 +5417,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5454,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,9 +5491,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,9 +5528,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5941,9 +5565,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5977,20 +5599,16 @@
         <v>-46048.13409254415</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2510</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -6016,17 +5634,11 @@
         <v>-46049.13409254415</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6055,17 +5667,11 @@
         <v>-46098.90119254415</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6094,17 +5700,11 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6133,17 +5733,11 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6175,14 +5769,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6214,14 +5802,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6253,14 +5835,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6292,14 +5868,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6331,14 +5901,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6367,19 +5931,11 @@
         <v>-52905.87199254415</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>2463</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6408,19 +5964,11 @@
         <v>-52905.87199254415</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>2460</v>
-      </c>
-      <c r="J163" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6449,19 +5997,11 @@
         <v>-52907.65779254415</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>2460</v>
-      </c>
-      <c r="J164" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6490,19 +6030,11 @@
         <v>-52910.47149254414</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>2459</v>
-      </c>
-      <c r="J165" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6531,19 +6063,11 @@
         <v>-54840.40309254415</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>2457</v>
-      </c>
-      <c r="J166" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6572,19 +6096,11 @@
         <v>-54840.40309254415</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>2455</v>
-      </c>
-      <c r="J167" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6613,19 +6129,11 @@
         <v>-54840.40309254415</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>2455</v>
-      </c>
-      <c r="J168" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6654,19 +6162,11 @@
         <v>-55336.02199254415</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>2455</v>
-      </c>
-      <c r="J169" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6695,19 +6195,11 @@
         <v>-54762.36199254415</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>2451</v>
-      </c>
-      <c r="J170" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6736,19 +6228,11 @@
         <v>-55205.16199254415</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>2452</v>
-      </c>
-      <c r="J171" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6777,19 +6261,11 @@
         <v>-55347.47419254415</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>2451</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6818,19 +6294,11 @@
         <v>-53698.65639254415</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J173" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6859,19 +6327,11 @@
         <v>-53780.15639254415</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>2451</v>
-      </c>
-      <c r="J174" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6900,19 +6360,11 @@
         <v>-53232.55119254415</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J175" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6941,19 +6393,11 @@
         <v>-52374.43709254415</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J176" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6982,19 +6426,11 @@
         <v>-53616.38919254416</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>2452</v>
-      </c>
-      <c r="J177" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7023,19 +6459,11 @@
         <v>-55120.85099254415</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J178" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7070,13 +6498,9 @@
         <v>2447</v>
       </c>
       <c r="J179" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2447</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7109,11 +6533,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>2510</v>
+        <v>2447</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -7148,11 +6572,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>2510</v>
+        <v>2447</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L181" t="n">
@@ -7186,14 +6610,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7225,14 +6643,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7264,14 +6676,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7300,19 +6706,11 @@
         <v>4320039.691807455</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>2455</v>
-      </c>
-      <c r="J185" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7341,19 +6739,11 @@
         <v>4319852.267107455</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>2454</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7382,19 +6772,11 @@
         <v>4319807.267107455</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J187" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7423,19 +6805,11 @@
         <v>4319807.267107455</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J188" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7467,14 +6841,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7503,19 +6871,11 @@
         <v>4319817.947107455</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>2451</v>
-      </c>
-      <c r="J190" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +6907,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +6940,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7664,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +7105,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7817,19 +7135,11 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J198" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7858,19 +7168,11 @@
         <v>4316852.583087699</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J199" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7902,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7941,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7980,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8019,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8055,19 +7333,11 @@
         <v>4319530.464228989</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>2448</v>
-      </c>
-      <c r="J204" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8099,14 +7369,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7402,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8177,14 +7435,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8213,19 +7465,11 @@
         <v>4317074.632628989</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>2442</v>
-      </c>
-      <c r="J208" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8257,14 +7501,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8293,19 +7531,11 @@
         <v>4317090.408928989</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>2443</v>
-      </c>
-      <c r="J210" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8337,14 +7567,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8373,19 +7597,11 @@
         <v>4313289.898528989</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>2444</v>
-      </c>
-      <c r="J212" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8417,14 +7633,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8453,19 +7663,11 @@
         <v>4308857.26242899</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>2437</v>
-      </c>
-      <c r="J214" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8494,19 +7696,11 @@
         <v>4309032.56762899</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>2441</v>
-      </c>
-      <c r="J215" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8535,19 +7729,11 @@
         <v>4310993.09062899</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>2443</v>
-      </c>
-      <c r="J216" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8576,19 +7762,11 @@
         <v>4310993.09062899</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J217" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8617,19 +7795,11 @@
         <v>4310984.59062899</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J218" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8661,14 +7831,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8700,14 +7864,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8739,14 +7897,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8775,19 +7927,11 @@
         <v>4313202.22622899</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>2449</v>
-      </c>
-      <c r="J222" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8816,19 +7960,11 @@
         <v>4313152.22622899</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>2450</v>
-      </c>
-      <c r="J223" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8857,19 +7993,11 @@
         <v>4313389.82792899</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>2447</v>
-      </c>
-      <c r="J224" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8901,14 +8029,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8940,14 +8062,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8979,14 +8095,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9018,14 +8128,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9057,14 +8161,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9096,14 +8194,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9135,14 +8227,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9174,14 +8260,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9210,17 +8290,11 @@
         <v>4314539.235921421</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9252,14 +8326,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9291,14 +8359,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9327,17 +8389,11 @@
         <v>4314395.794221421</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9366,17 +8422,11 @@
         <v>4314644.058387385</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9405,17 +8455,11 @@
         <v>4314544.058387385</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9444,17 +8488,11 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9483,17 +8521,11 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9522,17 +8554,11 @@
         <v>4313711.810487385</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9561,17 +8587,11 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9600,17 +8620,11 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9642,14 +8656,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9681,14 +8689,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9720,14 +8722,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +8755,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9798,14 +8788,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9837,14 +8821,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9876,14 +8854,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9915,14 +8887,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9954,14 +8920,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9993,14 +8953,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10032,14 +8986,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10071,14 +9019,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10110,14 +9052,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10149,14 +9085,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10188,14 +9118,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10227,14 +9151,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10266,14 +9184,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10305,14 +9217,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10344,14 +9250,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10383,14 +9283,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10422,14 +9316,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10461,14 +9349,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10497,17 +9379,11 @@
         <v>4310079.171587384</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10539,14 +9415,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10578,14 +9448,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10617,14 +9481,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10653,17 +9511,11 @@
         <v>4309976.308087384</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10695,14 +9547,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10734,14 +9580,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10773,14 +9613,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10812,14 +9646,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10851,14 +9679,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10890,14 +9712,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10929,14 +9745,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10968,14 +9778,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11007,14 +9811,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11046,14 +9844,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11085,14 +9877,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11124,14 +9910,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11163,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11202,14 +9976,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11241,14 +10009,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11280,14 +10042,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11319,14 +10075,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11358,14 +10108,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11397,14 +10141,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11436,14 +10174,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11475,14 +10207,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11514,14 +10240,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11553,14 +10273,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11592,14 +10306,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11631,14 +10339,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11670,14 +10372,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11709,14 +10405,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11745,17 +10435,11 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11784,17 +10468,11 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11823,17 +10501,11 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11862,17 +10534,11 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11901,17 +10567,11 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11940,17 +10600,11 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11979,17 +10633,11 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12018,17 +10666,11 @@
         <v>4307431.373707077</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12060,16 +10702,10 @@
         <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>2510</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
-        <v>0.9806573705179282</v>
+        <v>1</v>
       </c>
       <c r="M306" t="inlineStr"/>
     </row>
@@ -13119,7 +11755,7 @@
         <v>4303376.434207076</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13152,7 +11788,7 @@
         <v>4303377.580807076</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13185,7 +11821,7 @@
         <v>4301521.644507076</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13218,7 +11854,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13251,7 +11887,7 @@
         <v>4301532.955507075</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13284,7 +11920,7 @@
         <v>4301508.714607076</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13317,7 +11953,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13350,7 +11986,7 @@
         <v>4301508.924607076</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13383,7 +12019,7 @@
         <v>4301368.924607076</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13416,7 +12052,7 @@
         <v>4301346.924607076</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13449,7 +12085,7 @@
         <v>4301223.543507076</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13482,7 +12118,7 @@
         <v>4301272.304173471</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13515,7 +12151,7 @@
         <v>4301153.304173471</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13548,7 +12184,7 @@
         <v>4300808.304173471</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13581,7 +12217,7 @@
         <v>4300178.401573472</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13614,7 +12250,7 @@
         <v>4299219.401573472</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13647,7 +12283,7 @@
         <v>4299288.469473472</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13680,7 +12316,7 @@
         <v>4301941.731173472</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13713,7 +12349,7 @@
         <v>4300620.113573471</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13746,7 +12382,7 @@
         <v>4299608.536273471</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13779,7 +12415,7 @@
         <v>4299772.496273471</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13812,7 +12448,7 @@
         <v>4296227.496273471</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13845,7 +12481,7 @@
         <v>4296431.454173471</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13878,7 +12514,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13911,7 +12547,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13944,7 +12580,7 @@
         <v>4295486.454173471</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14472,7 +13108,7 @@
         <v>4295073.170956027</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14505,7 +13141,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14538,7 +13174,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14571,7 +13207,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14604,7 +13240,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14637,7 +13273,7 @@
         <v>4295060.725156027</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14769,7 +13405,7 @@
         <v>4295124.20733265</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14868,7 +13504,7 @@
         <v>4295360.225560308</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14879,6 +13515,6 @@
       <c r="M391" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LINK.xlsx
+++ b/BackTest/2020-01-14 BackTest LINK.xlsx
@@ -517,7 +517,7 @@
         <v>-13190.86840480656</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-13056.00040480656</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-13379.14150480656</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-14029.61400480656</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-13997.62640480656</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-14342.96690480656</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-14244.12640480656</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-14259.41110480656</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-14258.41110480656</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-14378.59070480656</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-14428.77370480656</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-14506.39430480656</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-14530.75920480656</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-15530.75920480656</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-15552.63620480656</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-16188.65770480656</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-16655.92280480656</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-17366.73360480656</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-17669.73360480656</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-17659.73360480656</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-16990.01390480656</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-16401.91510480656</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-18213.82505323723</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-18861.33985323723</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-18860.33985323723</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-18445.44549263358</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-18428.15809263358</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-18427.91359263358</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-18425.93729263358</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-18228.62079697454</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-18652.48909697454</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-18934.79339697454</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-18933.79339697454</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-20601.42029697454</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-20607.42029697454</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-20615.42029697454</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-20647.94819697454</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-21167.94819697454</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-21360.47679254416</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-23001.66129254416</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-23091.95499254416</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-23155.95499254416</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-23283.95499254416</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-23540.42119254416</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-23762.36809254416</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-24486.14089254416</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-23241.22569254416</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-23594.93179254416</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-23807.96159254416</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-23794.17039254416</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-24279.04489254416</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-24519.36919254416</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-27539.20999254416</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3982,17 +3982,11 @@
         <v>-35714.87339254416</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4021,17 +4015,11 @@
         <v>-36735.37129254416</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4060,17 +4048,11 @@
         <v>-48060.98279254416</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2467</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4099,17 +4081,11 @@
         <v>-46282.77169254416</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2464</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4138,17 +4114,11 @@
         <v>-46263.81709254416</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2465</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4177,17 +4147,11 @@
         <v>-45827.41209254416</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2470</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4216,17 +4180,11 @@
         <v>-46084.14959254416</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2488</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4255,17 +4213,11 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4294,17 +4246,11 @@
         <v>-47262.70319254416</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4333,17 +4279,11 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2472</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4372,17 +4312,11 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4411,17 +4345,11 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4450,17 +4378,11 @@
         <v>-47196.19739254416</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2473</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4493,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4530,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4567,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4604,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4641,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4715,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4752,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4789,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4826,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4900,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4937,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4974,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5011,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5048,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5085,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5122,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5196,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5233,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5270,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5141,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5344,11 +5174,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +5207,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5418,11 +5240,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +5273,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5492,11 +5306,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5529,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5566,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5599,16 +5401,14 @@
         <v>-46048.13409254415</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
       <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
@@ -5634,7 +5434,7 @@
         <v>-46049.13409254415</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5667,7 +5467,7 @@
         <v>-46098.90119254415</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5700,7 +5500,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5733,7 +5533,7 @@
         <v>-48564.18859254415</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6195,11 +5995,17 @@
         <v>-54762.36199254415</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2451</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6228,11 +6034,17 @@
         <v>-55205.16199254415</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>2452</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6261,11 +6073,17 @@
         <v>-55347.47419254415</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>2451</v>
+      </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6294,11 +6112,17 @@
         <v>-53698.65639254415</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>2448</v>
+      </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6327,11 +6151,17 @@
         <v>-53780.15639254415</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2451</v>
+      </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6360,11 +6190,17 @@
         <v>-53232.55119254415</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>2448</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +6229,17 @@
         <v>-52374.43709254415</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>2450</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +6268,17 @@
         <v>-53616.38919254416</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>2452</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +6307,17 @@
         <v>-55120.85099254415</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>2448</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6497,10 +6351,12 @@
       <c r="I179" t="n">
         <v>2447</v>
       </c>
-      <c r="J179" t="n">
-        <v>2447</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6532,12 +6388,10 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2447</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L180" t="n">
@@ -6568,20 +6422,16 @@
         <v>4320217.379707456</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2447</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
@@ -6607,7 +6457,7 @@
         <v>4320218.379707456</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6673,7 +6523,7 @@
         <v>4320144.684707455</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -8290,7 +8140,7 @@
         <v>4314539.235921421</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8389,7 +8239,7 @@
         <v>4314395.794221421</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8422,7 +8272,7 @@
         <v>4314644.058387385</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8455,7 +8305,7 @@
         <v>4314544.058387385</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8488,7 +8338,7 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8521,7 +8371,7 @@
         <v>4314596.058387385</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8554,7 +8404,7 @@
         <v>4313711.810487385</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8587,7 +8437,7 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8620,7 +8470,7 @@
         <v>4313692.988787385</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9379,7 +9229,7 @@
         <v>4310079.171587384</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9511,7 +9361,7 @@
         <v>4309976.308087384</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10435,7 +10285,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10468,7 +10318,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10501,7 +10351,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10534,7 +10384,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10567,7 +10417,7 @@
         <v>4309136.028807077</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10600,7 +10450,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10633,7 +10483,7 @@
         <v>4307072.565207076</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10666,7 +10516,7 @@
         <v>4307431.373707077</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10699,7 +10549,7 @@
         <v>4307419.341807077</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10732,7 +10582,7 @@
         <v>4307455.417007077</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10765,7 +10615,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10798,7 +10648,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10831,7 +10681,7 @@
         <v>4307358.282407076</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10864,7 +10714,7 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10897,7 +10747,7 @@
         <v>4307339.814307076</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10930,7 +10780,7 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10963,7 +10813,7 @@
         <v>4307632.653207076</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10996,7 +10846,7 @@
         <v>4307429.045807076</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11029,7 +10879,7 @@
         <v>4306456.631607075</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11062,7 +10912,7 @@
         <v>4305780.344407075</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11095,7 +10945,7 @@
         <v>4305782.554407075</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11128,7 +10978,7 @@
         <v>4305500.614607075</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11161,7 +11011,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11194,7 +11044,7 @@
         <v>4305500.824607075</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11227,7 +11077,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11260,7 +11110,7 @@
         <v>4305000.833307075</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11293,7 +11143,7 @@
         <v>4305016.527207076</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11326,7 +11176,7 @@
         <v>4304916.527207076</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11359,7 +11209,7 @@
         <v>4304917.527207076</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11392,7 +11242,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11425,7 +11275,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11458,7 +11308,7 @@
         <v>4305112.363307076</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11491,7 +11341,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11524,7 +11374,7 @@
         <v>4303973.155807076</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11557,7 +11407,7 @@
         <v>4303975.155807076</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11590,7 +11440,7 @@
         <v>4303074.155807076</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11623,7 +11473,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11656,7 +11506,7 @@
         <v>4303509.415307076</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11689,7 +11539,7 @@
         <v>4303896.006607076</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11722,7 +11572,7 @@
         <v>4303710.671707076</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
